--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1703714.525098781</v>
+        <v>1700640.660544775</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9900695.151227364</v>
+        <v>9900695.151227351</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5059086.023117545</v>
+        <v>5059086.02311754</v>
       </c>
     </row>
     <row r="9">
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
@@ -676,40 +676,40 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.177487233474767</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>2.177487233474765</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -746,16 +746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>11.20861519035162</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G3" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="H3" t="n">
-        <v>11.20861519035161</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>12.725494085322</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="J4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>11.20861519035161</v>
       </c>
     </row>
     <row r="5">
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.177487233474765</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="S5" t="n">
         <v>12.725494085322</v>
@@ -980,52 +980,52 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>11.20861519035162</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G6" t="n">
+        <v>11.20861519035161</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="H6" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="I6" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>11.20861519035162</v>
       </c>
       <c r="S7" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>2.177487233474765</v>
+        <v>11.20861519035161</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>12.725494085322</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,49 +1229,49 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="S9" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="V9" t="n">
         <v>11.20861519035161</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>12.725494085322</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1299,58 +1299,58 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="F10" t="n">
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>11.20861519035162</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>11.20861519035161</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="V10" t="n">
         <v>12.725494085322</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1372,16 +1372,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>389.2437464820987</v>
+        <v>60.35396015886407</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>343.5124882726954</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.0745883887606</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>385.5580790162737</v>
@@ -1469,7 +1469,7 @@
         <v>79.62364603542741</v>
       </c>
       <c r="I12" t="n">
-        <v>21.11965294238341</v>
+        <v>21.11965294238342</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>104.1529500309292</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>76.45175596799956</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T13" t="n">
         <v>230.4722567313032</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>263.319551727384</v>
@@ -1593,7 +1593,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y13" t="n">
         <v>220.8809405715231</v>
@@ -1612,19 +1612,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>407.523454444542</v>
+        <v>172.3051935580831</v>
       </c>
       <c r="H14" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>78.82916265417055</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>253.0745883887606</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>58.49837088424741</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.8952229274298</v>
+        <v>42.96390074345879</v>
       </c>
       <c r="H16" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>111.4255833268762</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U16" t="n">
-        <v>135.9408540842479</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V16" t="n">
         <v>263.319551727384</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>19.79635493390573</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>214.6657556159317</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.0745883887606</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>143.2857518039484</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>69.24729929949257</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>92.25350231781388</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.0020251410377</v>
+        <v>10.60745990058275</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="20">
@@ -2083,22 +2083,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>370.9863075418834</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>227.2723711996549</v>
       </c>
       <c r="H20" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>75.18449370445606</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H22" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>282.5475152713843</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
-        <v>208.785945397975</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
         <v>220.8809405715231</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>303.9292633935318</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -2329,7 +2329,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>398.9941218787417</v>
       </c>
       <c r="G23" t="n">
         <v>407.523454444542</v>
@@ -2338,7 +2338,7 @@
         <v>305.4017585709749</v>
       </c>
       <c r="I23" t="n">
-        <v>78.82916265417055</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>106.1478578324821</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>92.25350231781388</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U25" t="n">
-        <v>163.7795985083681</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.4017585709749</v>
       </c>
       <c r="I26" t="n">
-        <v>78.82916265417055</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>253.0745883887606</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>324.9543689969363</v>
       </c>
       <c r="W26" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>292.9975441555229</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -2712,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>117.2059566232143</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
         <v>155.7526754391568</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S28" t="n">
         <v>189.0020251410377</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>138.9997342904916</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -2809,10 +2809,10 @@
         <v>407.523454444542</v>
       </c>
       <c r="H29" t="n">
-        <v>305.4017585709749</v>
+        <v>291.6703863643946</v>
       </c>
       <c r="I29" t="n">
-        <v>78.82916265417053</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>299.9652671278541</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>79.62364603542741</v>
       </c>
       <c r="I30" t="n">
-        <v>21.1196529423834</v>
+        <v>21.11965294238341</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>118.5977091543317</v>
+        <v>118.5977091543318</v>
       </c>
       <c r="T30" t="n">
         <v>171.9625015178765</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>50.61229762090222</v>
+        <v>104.8458558281632</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T31" t="n">
         <v>230.4722567313032</v>
@@ -3012,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>407.523454444542</v>
       </c>
       <c r="H32" t="n">
-        <v>305.4017585709749</v>
+        <v>291.6703863643946</v>
       </c>
       <c r="I32" t="n">
-        <v>78.82916265417053</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>214.6657556159317</v>
       </c>
       <c r="U32" t="n">
-        <v>160.5140535280092</v>
+        <v>253.0745883887606</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>139.2348981542917</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
@@ -3252,10 +3252,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>76.03654286745152</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
         <v>381.5867174954989</v>
@@ -3277,16 +3277,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>368.4376515196226</v>
+        <v>407.523454444542</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I35" t="n">
-        <v>78.82916265417053</v>
+        <v>66.81293717824242</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>214.6657556159317</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.0745883887606</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>75.18449370445609</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.8952229274298</v>
@@ -3477,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>180.3175965571416</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
         <v>280.4970980481341</v>
@@ -3492,7 +3492,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>126.3720039329951</v>
       </c>
       <c r="Y38" t="n">
-        <v>122.4006424122201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>20.99576265337478</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>282.5475152713843</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>162.6612814623863</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>28.01038338238776</v>
       </c>
       <c r="D41" t="n">
-        <v>375.5150923954313</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>407.523454444542</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I41" t="n">
         <v>78.82916265417053</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>154.0032240193895</v>
@@ -3915,10 +3915,10 @@
         <v>165.8952229274298</v>
       </c>
       <c r="H43" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.0694048261612</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>180.9409970717497</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>45.51310950895406</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3991,13 +3991,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G44" t="n">
-        <v>377.9686718524559</v>
+        <v>407.523454444542</v>
       </c>
       <c r="H44" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>78.82916265417053</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>214.6657556159317</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.0745883887606</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4137,7 +4137,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,13 +4146,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>98.1748244712405</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>109.7990366675788</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
         <v>280.4970980481341</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.70249428727308</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C2" t="n">
-        <v>48.70249428727308</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D2" t="n">
-        <v>48.70249428727308</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E2" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F2" t="n">
-        <v>22.99442542803671</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="G2" t="n">
-        <v>13.87207395644394</v>
+        <v>3.217521580840677</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01803952682576</v>
+        <v>3.217521580840677</v>
       </c>
       <c r="I2" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J2" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K2" t="n">
         <v>13.61627867129454</v>
       </c>
       <c r="L2" t="n">
-        <v>26.21451781576332</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M2" t="n">
-        <v>26.21451781576332</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="N2" t="n">
-        <v>26.21451781576332</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21451781576332</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P2" t="n">
         <v>38.30373719681921</v>
@@ -4354,28 +4354,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R2" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S2" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="T2" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="U2" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="V2" t="n">
-        <v>48.70249428727308</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="W2" t="n">
-        <v>48.70249428727308</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="X2" t="n">
-        <v>48.70249428727308</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="Y2" t="n">
-        <v>48.70249428727308</v>
+        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="C3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="D3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="E3" t="n">
-        <v>38.04794191166981</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="F3" t="n">
-        <v>38.04794191166981</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="G3" t="n">
-        <v>25.19390748205163</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="H3" t="n">
         <v>13.87207395644394</v>
@@ -4409,19 +4409,19 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J3" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K3" t="n">
-        <v>1.01803952682576</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01803952682576</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="M3" t="n">
-        <v>13.10725890788166</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="N3" t="n">
-        <v>25.70549805235044</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="O3" t="n">
         <v>38.30373719681921</v>
@@ -4433,28 +4433,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="S3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="T3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="U3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="V3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="W3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="X3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Y3" t="n">
-        <v>38.04794191166981</v>
+        <v>50.90197634128799</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.87207395644394</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C4" t="n">
         <v>13.87207395644394</v>
@@ -4485,25 +4485,25 @@
         <v>13.87207395644394</v>
       </c>
       <c r="I4" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="J4" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="K4" t="n">
+        <v>1.01803952682576</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.01803952682576</v>
+      </c>
+      <c r="M4" t="n">
         <v>13.61627867129454</v>
       </c>
-      <c r="L4" t="n">
-        <v>13.61627867129454</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>26.21451781576332</v>
       </c>
-      <c r="N4" t="n">
-        <v>38.81275696023209</v>
-      </c>
       <c r="O4" t="n">
-        <v>38.81275696023209</v>
+        <v>34.88154082676826</v>
       </c>
       <c r="P4" t="n">
         <v>47.47977997123704</v>
@@ -4518,22 +4518,22 @@
         <v>38.04794191166981</v>
       </c>
       <c r="T4" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="U4" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="V4" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="W4" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="X4" t="n">
+        <v>38.04794191166981</v>
+      </c>
+      <c r="Y4" t="n">
         <v>25.19390748205163</v>
-      </c>
-      <c r="U4" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="V4" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="W4" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="X4" t="n">
-        <v>25.19390748205163</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13.87207395644394</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="C5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="D5" t="n">
-        <v>35.84845985765489</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E5" t="n">
-        <v>22.99442542803671</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F5" t="n">
-        <v>10.14039099841853</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="G5" t="n">
         <v>1.01803952682576</v>
@@ -4567,52 +4567,52 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K5" t="n">
-        <v>1.01803952682576</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01803952682576</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01803952682576</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="N5" t="n">
-        <v>13.61627867129454</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21451781576332</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="P5" t="n">
-        <v>38.81275696023209</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="Q5" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R5" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="T5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="U5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="V5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="W5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="X5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="D6" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="E6" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="F6" t="n">
-        <v>39.5801428156803</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="G6" t="n">
-        <v>26.72610838606212</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="H6" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="I6" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J6" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K6" t="n">
-        <v>1.01803952682576</v>
+        <v>26.21451781576332</v>
       </c>
       <c r="L6" t="n">
-        <v>13.61627867129454</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="M6" t="n">
-        <v>25.70549805235044</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="N6" t="n">
-        <v>25.70549805235044</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="O6" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="P6" t="n">
-        <v>38.30373719681921</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q6" t="n">
         <v>50.90197634128799</v>
@@ -4673,25 +4673,25 @@
         <v>50.90197634128799</v>
       </c>
       <c r="S6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="T6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="U6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="V6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="W6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="X6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="Y6" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="C7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="D7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="E7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="F7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="G7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="H7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="I7" t="n">
-        <v>1.01803952682576</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="J7" t="n">
         <v>1.01803952682576</v>
@@ -4731,19 +4731,19 @@
         <v>1.01803952682576</v>
       </c>
       <c r="L7" t="n">
-        <v>9.685062537830703</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M7" t="n">
-        <v>22.28330168229948</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="N7" t="n">
-        <v>34.88154082676826</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="O7" t="n">
-        <v>47.47977997123704</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="P7" t="n">
-        <v>47.47977997123704</v>
+        <v>50.90197634128799</v>
       </c>
       <c r="Q7" t="n">
         <v>50.90197634128799</v>
@@ -4752,25 +4752,25 @@
         <v>39.5801428156803</v>
       </c>
       <c r="S7" t="n">
+        <v>39.5801428156803</v>
+      </c>
+      <c r="T7" t="n">
         <v>26.72610838606212</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="V7" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="W7" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="X7" t="n">
+        <v>26.72610838606212</v>
+      </c>
+      <c r="Y7" t="n">
         <v>13.87207395644394</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="X7" t="n">
-        <v>1.01803952682576</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>1.01803952682576</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="C8" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="D8" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="E8" t="n">
-        <v>22.99442542803671</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="F8" t="n">
-        <v>10.14039099841853</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="G8" t="n">
         <v>1.01803952682576</v>
@@ -4804,7 +4804,7 @@
         <v>1.01803952682576</v>
       </c>
       <c r="J8" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K8" t="n">
         <v>13.61627867129454</v>
@@ -4819,10 +4819,10 @@
         <v>13.61627867129454</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21451781576332</v>
+        <v>25.70549805235044</v>
       </c>
       <c r="P8" t="n">
-        <v>38.81275696023209</v>
+        <v>38.30373719681921</v>
       </c>
       <c r="Q8" t="n">
         <v>50.90197634128799</v>
@@ -4849,7 +4849,7 @@
         <v>38.04794191166981</v>
       </c>
       <c r="Y8" t="n">
-        <v>25.19390748205163</v>
+        <v>38.04794191166981</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="C9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="D9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="E9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="F9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="G9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="H9" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="I9" t="n">
         <v>1.01803952682576</v>
       </c>
       <c r="J9" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="K9" t="n">
-        <v>1.01803952682576</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="L9" t="n">
-        <v>13.10725890788166</v>
+        <v>13.61627867129454</v>
       </c>
       <c r="M9" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="N9" t="n">
+        <v>13.61627867129454</v>
+      </c>
+      <c r="O9" t="n">
         <v>25.70549805235044</v>
       </c>
-      <c r="N9" t="n">
-        <v>25.70549805235044</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>38.30373719681921</v>
-      </c>
-      <c r="P9" t="n">
-        <v>50.90197634128799</v>
       </c>
       <c r="Q9" t="n">
         <v>50.90197634128799</v>
       </c>
       <c r="R9" t="n">
-        <v>50.90197634128799</v>
+        <v>38.04794191166981</v>
       </c>
       <c r="S9" t="n">
-        <v>50.90197634128799</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="T9" t="n">
-        <v>38.04794191166981</v>
+        <v>25.19390748205163</v>
       </c>
       <c r="U9" t="n">
-        <v>38.04794191166981</v>
+        <v>12.33987305243345</v>
       </c>
       <c r="V9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="W9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="X9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="Y9" t="n">
-        <v>25.19390748205163</v>
+        <v>1.01803952682576</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="C10" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="D10" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="E10" t="n">
-        <v>38.04794191166981</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="F10" t="n">
-        <v>25.19390748205163</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="G10" t="n">
-        <v>25.19390748205163</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="H10" t="n">
-        <v>25.19390748205163</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="I10" t="n">
-        <v>13.87207395644394</v>
+        <v>1.01803952682576</v>
       </c>
       <c r="J10" t="n">
         <v>1.01803952682576</v>
@@ -4974,10 +4974,10 @@
         <v>26.21451781576332</v>
       </c>
       <c r="N10" t="n">
-        <v>34.88154082676826</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="O10" t="n">
-        <v>47.47977997123704</v>
+        <v>38.81275696023209</v>
       </c>
       <c r="P10" t="n">
         <v>47.47977997123704</v>
@@ -4986,28 +4986,28 @@
         <v>50.90197634128799</v>
       </c>
       <c r="R10" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="S10" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="T10" t="n">
-        <v>50.90197634128799</v>
+        <v>39.5801428156803</v>
       </c>
       <c r="U10" t="n">
-        <v>50.90197634128799</v>
+        <v>26.72610838606212</v>
       </c>
       <c r="V10" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="W10" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="X10" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
       <c r="Y10" t="n">
-        <v>50.90197634128799</v>
+        <v>13.87207395644394</v>
       </c>
     </row>
     <row r="11">
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>785.8559143399195</v>
+        <v>894.6863512431416</v>
       </c>
       <c r="C11" t="n">
-        <v>392.6804128428501</v>
+        <v>833.7227551230769</v>
       </c>
       <c r="D11" t="n">
-        <v>392.6804128428501</v>
+        <v>448.2816263397446</v>
       </c>
       <c r="E11" t="n">
-        <v>392.6804128428501</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="F11" t="n">
         <v>45.69810145628912</v>
@@ -5044,19 +5044,19 @@
         <v>317.0301600849718</v>
       </c>
       <c r="K11" t="n">
-        <v>365.2662482367442</v>
+        <v>865.8764234116511</v>
       </c>
       <c r="L11" t="n">
-        <v>521.4549941111982</v>
+        <v>949.7037012982681</v>
       </c>
       <c r="M11" t="n">
-        <v>635.314126885987</v>
+        <v>1132.300051786025</v>
       </c>
       <c r="N11" t="n">
-        <v>754.0145949113718</v>
+        <v>1251.00051981141</v>
       </c>
       <c r="O11" t="n">
-        <v>1319.52860043295</v>
+        <v>1816.514525332987</v>
       </c>
       <c r="P11" t="n">
         <v>1882.353374873457</v>
@@ -5068,25 +5068,25 @@
         <v>2284.905072814456</v>
       </c>
       <c r="S11" t="n">
-        <v>2284.905072814456</v>
+        <v>2153.094659333618</v>
       </c>
       <c r="T11" t="n">
-        <v>2284.905072814456</v>
+        <v>1936.260562751868</v>
       </c>
       <c r="U11" t="n">
-        <v>2284.905072814456</v>
+        <v>1680.629665389484</v>
       </c>
       <c r="V11" t="n">
-        <v>1942.798263517974</v>
+        <v>1680.629665389484</v>
       </c>
       <c r="W11" t="n">
-        <v>1571.799228486262</v>
+        <v>1680.629665389484</v>
       </c>
       <c r="X11" t="n">
-        <v>1182.346623419318</v>
+        <v>1291.17706032254</v>
       </c>
       <c r="Y11" t="n">
-        <v>785.8559143399195</v>
+        <v>894.6863512431416</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>808.3254975745267</v>
+        <v>808.3254975745263</v>
       </c>
       <c r="C12" t="n">
-        <v>657.6712671346188</v>
+        <v>657.6712671346183</v>
       </c>
       <c r="D12" t="n">
-        <v>527.5822997560992</v>
+        <v>527.5822997560988</v>
       </c>
       <c r="E12" t="n">
-        <v>391.135808866987</v>
+        <v>391.1358088669865</v>
       </c>
       <c r="F12" t="n">
-        <v>266.7040027501187</v>
+        <v>266.7040027501182</v>
       </c>
       <c r="G12" t="n">
-        <v>147.4590095146839</v>
+        <v>147.4590095146841</v>
       </c>
       <c r="H12" t="n">
         <v>67.03108422637338</v>
@@ -5120,25 +5120,25 @@
         <v>45.69810145628912</v>
       </c>
       <c r="J12" t="n">
-        <v>234.2641851902226</v>
+        <v>234.2641851902225</v>
       </c>
       <c r="K12" t="n">
-        <v>682.9612814148613</v>
+        <v>682.9612814148612</v>
       </c>
       <c r="L12" t="n">
         <v>1248.475286936439</v>
       </c>
       <c r="M12" t="n">
-        <v>1542.991747017429</v>
+        <v>1359.361515448212</v>
       </c>
       <c r="N12" t="n">
-        <v>2108.505752539007</v>
+        <v>1482.548191671656</v>
       </c>
       <c r="O12" t="n">
-        <v>2206.754627933642</v>
+        <v>1580.797067066291</v>
       </c>
       <c r="P12" t="n">
-        <v>2273.041519153566</v>
+        <v>1948.598155974321</v>
       </c>
       <c r="Q12" t="n">
         <v>2284.905072814456</v>
@@ -5150,7 +5150,7 @@
         <v>2165.109407001999</v>
       </c>
       <c r="T12" t="n">
-        <v>1991.409910519296</v>
+        <v>1991.409910519295</v>
       </c>
       <c r="U12" t="n">
         <v>1781.400374085615</v>
@@ -5162,10 +5162,10 @@
         <v>1328.743126589969</v>
       </c>
       <c r="X12" t="n">
-        <v>1139.436048939981</v>
+        <v>1139.43604893998</v>
       </c>
       <c r="Y12" t="n">
-        <v>960.1218320154881</v>
+        <v>960.1218320154876</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>290.4930296334906</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="C13" t="n">
-        <v>290.4930296334906</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="D13" t="n">
-        <v>290.4930296334906</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="E13" t="n">
-        <v>213.2690337062183</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="F13" t="n">
-        <v>213.2690337062183</v>
+        <v>45.69810145628912</v>
       </c>
       <c r="G13" t="n">
         <v>45.69810145628912</v>
@@ -5199,7 +5199,7 @@
         <v>45.69810145628912</v>
       </c>
       <c r="J13" t="n">
-        <v>63.25995521414658</v>
+        <v>63.25995521414657</v>
       </c>
       <c r="K13" t="n">
         <v>222.881922056462</v>
@@ -5226,25 +5226,25 @@
         <v>1581.11662796655</v>
       </c>
       <c r="S13" t="n">
-        <v>1581.11662796655</v>
+        <v>1390.205491460451</v>
       </c>
       <c r="T13" t="n">
-        <v>1348.316368642001</v>
+        <v>1157.405232135902</v>
       </c>
       <c r="U13" t="n">
-        <v>1062.914838064845</v>
+        <v>1157.405232135902</v>
       </c>
       <c r="V13" t="n">
-        <v>796.9354928856695</v>
+        <v>891.4258869567267</v>
       </c>
       <c r="W13" t="n">
-        <v>513.6050908168472</v>
+        <v>608.0954848879044</v>
       </c>
       <c r="X13" t="n">
-        <v>513.6050908168472</v>
+        <v>374.0151626708874</v>
       </c>
       <c r="Y13" t="n">
-        <v>290.4930296334906</v>
+        <v>150.9031014875308</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1238.625497569205</v>
+        <v>1897.463761971233</v>
       </c>
       <c r="C14" t="n">
-        <v>845.4499960721351</v>
+        <v>1504.288260474164</v>
       </c>
       <c r="D14" t="n">
-        <v>845.4499960721351</v>
+        <v>1118.847131690831</v>
       </c>
       <c r="E14" t="n">
-        <v>845.4499960721351</v>
+        <v>716.2636068073757</v>
       </c>
       <c r="F14" t="n">
-        <v>845.4499960721351</v>
+        <v>299.3691683373535</v>
       </c>
       <c r="G14" t="n">
-        <v>433.8101430978503</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="H14" t="n">
         <v>125.3235182786836</v>
@@ -5278,52 +5278,52 @@
         <v>45.69810145628912</v>
       </c>
       <c r="J14" t="n">
-        <v>55.87734761322107</v>
+        <v>317.0301600849718</v>
       </c>
       <c r="K14" t="n">
-        <v>104.1134357649935</v>
+        <v>865.8764234116511</v>
       </c>
       <c r="L14" t="n">
-        <v>582.068948093293</v>
+        <v>1367.973182586346</v>
       </c>
       <c r="M14" t="n">
-        <v>1147.582953614871</v>
+        <v>1481.832315361135</v>
       </c>
       <c r="N14" t="n">
-        <v>1713.096959136449</v>
+        <v>1600.53278338652</v>
       </c>
       <c r="O14" t="n">
-        <v>1816.514525332987</v>
+        <v>1703.950349583059</v>
       </c>
       <c r="P14" t="n">
-        <v>1882.353374873457</v>
+        <v>2266.775124023566</v>
       </c>
       <c r="Q14" t="n">
-        <v>2228.382595239504</v>
+        <v>2284.905072814456</v>
       </c>
       <c r="R14" t="n">
         <v>2284.905072814456</v>
       </c>
       <c r="S14" t="n">
-        <v>2284.905072814456</v>
+        <v>2153.094659333618</v>
       </c>
       <c r="T14" t="n">
-        <v>2284.905072814456</v>
+        <v>2153.094659333618</v>
       </c>
       <c r="U14" t="n">
-        <v>2029.274175452071</v>
+        <v>1897.463761971233</v>
       </c>
       <c r="V14" t="n">
-        <v>1687.16736615559</v>
+        <v>1897.463761971233</v>
       </c>
       <c r="W14" t="n">
-        <v>1628.078102636148</v>
+        <v>1897.463761971233</v>
       </c>
       <c r="X14" t="n">
-        <v>1238.625497569205</v>
+        <v>1897.463761971233</v>
       </c>
       <c r="Y14" t="n">
-        <v>1238.625497569205</v>
+        <v>1897.463761971233</v>
       </c>
     </row>
     <row r="15">
@@ -5333,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>808.3254975745263</v>
+        <v>808.3254975745261</v>
       </c>
       <c r="C15" t="n">
         <v>657.6712671346183</v>
       </c>
       <c r="D15" t="n">
-        <v>527.5822997560988</v>
+        <v>527.5822997560987</v>
       </c>
       <c r="E15" t="n">
-        <v>391.1358088669865</v>
+        <v>391.1358088669864</v>
       </c>
       <c r="F15" t="n">
         <v>266.7040027501182</v>
@@ -5351,7 +5351,7 @@
         <v>147.4590095146839</v>
       </c>
       <c r="H15" t="n">
-        <v>67.03108422637342</v>
+        <v>67.03108422637337</v>
       </c>
       <c r="I15" t="n">
         <v>45.69810145628912</v>
@@ -5360,28 +5360,28 @@
         <v>45.69810145628912</v>
       </c>
       <c r="K15" t="n">
-        <v>85.95508563870143</v>
+        <v>494.3951976809279</v>
       </c>
       <c r="L15" t="n">
-        <v>170.1952206432204</v>
+        <v>1058.155584737025</v>
       </c>
       <c r="M15" t="n">
-        <v>726.7144839506651</v>
+        <v>1169.041813248798</v>
       </c>
       <c r="N15" t="n">
-        <v>1292.228489472243</v>
+        <v>1292.228489472242</v>
       </c>
       <c r="O15" t="n">
-        <v>1390.477364866878</v>
+        <v>1390.477364866877</v>
       </c>
       <c r="P15" t="n">
-        <v>1948.598155974321</v>
+        <v>1948.59815597432</v>
       </c>
       <c r="Q15" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="S15" t="n">
         <v>2165.109407001999</v>
@@ -5402,7 +5402,7 @@
         <v>1139.43604893998</v>
       </c>
       <c r="Y15" t="n">
-        <v>960.1218320154876</v>
+        <v>960.1218320154875</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>943.7429665458646</v>
+        <v>512.8390005029911</v>
       </c>
       <c r="C16" t="n">
-        <v>943.7429665458646</v>
+        <v>512.8390005029911</v>
       </c>
       <c r="D16" t="n">
-        <v>788.1098534483795</v>
+        <v>357.2058874055058</v>
       </c>
       <c r="E16" t="n">
-        <v>632.551041307582</v>
+        <v>201.6470752647083</v>
       </c>
       <c r="F16" t="n">
-        <v>475.2251065205548</v>
+        <v>201.6470752647083</v>
       </c>
       <c r="G16" t="n">
-        <v>307.6541742706257</v>
+        <v>158.2491957258611</v>
       </c>
       <c r="H16" t="n">
         <v>158.2491957258611</v>
@@ -5460,28 +5460,28 @@
         <v>1581.11662796655</v>
       </c>
       <c r="R16" t="n">
-        <v>1581.11662796655</v>
+        <v>1487.93127208997</v>
       </c>
       <c r="S16" t="n">
-        <v>1581.11662796655</v>
+        <v>1297.020135583871</v>
       </c>
       <c r="T16" t="n">
-        <v>1581.11662796655</v>
+        <v>1064.219876259323</v>
       </c>
       <c r="U16" t="n">
-        <v>1443.802633942057</v>
+        <v>778.8183456821669</v>
       </c>
       <c r="V16" t="n">
-        <v>1177.823288762881</v>
+        <v>512.8390005029911</v>
       </c>
       <c r="W16" t="n">
-        <v>1177.823288762881</v>
+        <v>512.8390005029911</v>
       </c>
       <c r="X16" t="n">
-        <v>943.7429665458646</v>
+        <v>512.8390005029911</v>
       </c>
       <c r="Y16" t="n">
-        <v>943.7429665458646</v>
+        <v>512.8390005029911</v>
       </c>
     </row>
     <row r="17">
@@ -5491,31 +5491,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1193.65900774399</v>
+        <v>510.7646470620159</v>
       </c>
       <c r="C17" t="n">
-        <v>1193.65900774399</v>
+        <v>510.7646470620159</v>
       </c>
       <c r="D17" t="n">
-        <v>1193.65900774399</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="E17" t="n">
-        <v>791.0754828605343</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="F17" t="n">
-        <v>374.1810443905121</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="G17" t="n">
-        <v>374.1810443905121</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="H17" t="n">
-        <v>65.69441957134541</v>
+        <v>125.3235182786836</v>
       </c>
       <c r="I17" t="n">
-        <v>45.69810145628912</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="J17" t="n">
-        <v>55.87734761322107</v>
+        <v>55.87734761322106</v>
       </c>
       <c r="K17" t="n">
         <v>604.7236109399004</v>
@@ -5524,43 +5524,43 @@
         <v>1170.237616461478</v>
       </c>
       <c r="M17" t="n">
-        <v>1735.751621983056</v>
+        <v>1284.096749236267</v>
       </c>
       <c r="N17" t="n">
-        <v>2097.518708286558</v>
+        <v>1402.797217261651</v>
       </c>
       <c r="O17" t="n">
-        <v>2200.936274483096</v>
+        <v>1873.037002907939</v>
       </c>
       <c r="P17" t="n">
-        <v>2266.775124023566</v>
+        <v>1938.875852448408</v>
       </c>
       <c r="Q17" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="R17" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="S17" t="n">
-        <v>2153.094659333618</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="T17" t="n">
-        <v>1936.260562751868</v>
+        <v>2068.070976232706</v>
       </c>
       <c r="U17" t="n">
-        <v>1936.260562751868</v>
+        <v>1812.440078870321</v>
       </c>
       <c r="V17" t="n">
-        <v>1594.153753455387</v>
+        <v>1667.706996240071</v>
       </c>
       <c r="W17" t="n">
-        <v>1594.153753455387</v>
+        <v>1296.707961208358</v>
       </c>
       <c r="X17" t="n">
-        <v>1594.153753455387</v>
+        <v>907.2553561414147</v>
       </c>
       <c r="Y17" t="n">
-        <v>1594.153753455387</v>
+        <v>510.7646470620159</v>
       </c>
     </row>
     <row r="18">
@@ -5570,61 +5570,61 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>808.3254975745267</v>
+        <v>808.3254975745263</v>
       </c>
       <c r="C18" t="n">
-        <v>657.6712671346188</v>
+        <v>657.6712671346183</v>
       </c>
       <c r="D18" t="n">
-        <v>527.5822997560992</v>
+        <v>527.5822997560988</v>
       </c>
       <c r="E18" t="n">
-        <v>391.135808866987</v>
+        <v>391.1358088669865</v>
       </c>
       <c r="F18" t="n">
-        <v>266.7040027501187</v>
+        <v>266.7040027501181</v>
       </c>
       <c r="G18" t="n">
         <v>147.4590095146839</v>
       </c>
       <c r="H18" t="n">
-        <v>67.03108422637338</v>
+        <v>67.03108422637334</v>
       </c>
       <c r="I18" t="n">
-        <v>45.69810145628912</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="J18" t="n">
-        <v>45.69810145628912</v>
+        <v>234.2641851902226</v>
       </c>
       <c r="K18" t="n">
-        <v>466.4988194372139</v>
+        <v>682.9612814148613</v>
       </c>
       <c r="L18" t="n">
-        <v>1032.012824958792</v>
+        <v>1032.012824958791</v>
       </c>
       <c r="M18" t="n">
         <v>1142.899053470564</v>
       </c>
       <c r="N18" t="n">
-        <v>1266.085729694009</v>
+        <v>1266.085729694008</v>
       </c>
       <c r="O18" t="n">
         <v>1364.334605088644</v>
       </c>
       <c r="P18" t="n">
-        <v>1922.455396196087</v>
+        <v>1922.455396196086</v>
       </c>
       <c r="Q18" t="n">
-        <v>2258.762313036222</v>
+        <v>2258.762313036221</v>
       </c>
       <c r="R18" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="S18" t="n">
         <v>2165.109407001999</v>
       </c>
       <c r="T18" t="n">
-        <v>1991.409910519296</v>
+        <v>1991.409910519295</v>
       </c>
       <c r="U18" t="n">
         <v>1781.400374085615</v>
@@ -5636,10 +5636,10 @@
         <v>1328.743126589969</v>
       </c>
       <c r="X18" t="n">
-        <v>1139.436048939981</v>
+        <v>1139.43604893998</v>
       </c>
       <c r="Y18" t="n">
-        <v>960.1218320154881</v>
+        <v>960.1218320154876</v>
       </c>
     </row>
     <row r="19">
@@ -5649,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>943.7429665458646</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="C19" t="n">
-        <v>943.7429665458646</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="D19" t="n">
-        <v>788.1098534483795</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="E19" t="n">
-        <v>632.551041307582</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="F19" t="n">
-        <v>475.2251065205548</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="G19" t="n">
-        <v>307.6541742706257</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="H19" t="n">
-        <v>158.2491957258611</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="I19" t="n">
-        <v>45.69810145628912</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="J19" t="n">
-        <v>63.25995521414658</v>
+        <v>63.25995521414657</v>
       </c>
       <c r="K19" t="n">
         <v>222.881922056462</v>
@@ -5697,28 +5697,28 @@
         <v>1581.11662796655</v>
       </c>
       <c r="R19" t="n">
-        <v>1487.93127208997</v>
+        <v>1581.11662796655</v>
       </c>
       <c r="S19" t="n">
-        <v>1297.020135583871</v>
+        <v>1570.402022006365</v>
       </c>
       <c r="T19" t="n">
-        <v>1297.020135583871</v>
+        <v>1337.601762681817</v>
       </c>
       <c r="U19" t="n">
-        <v>1297.020135583871</v>
+        <v>1052.200232104661</v>
       </c>
       <c r="V19" t="n">
-        <v>1297.020135583871</v>
+        <v>786.220886925485</v>
       </c>
       <c r="W19" t="n">
-        <v>1013.689733515049</v>
+        <v>502.8904848566626</v>
       </c>
       <c r="X19" t="n">
-        <v>1013.689733515049</v>
+        <v>268.8101626396457</v>
       </c>
       <c r="Y19" t="n">
-        <v>1013.689733515049</v>
+        <v>45.69810145628911</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1145.812808727178</v>
+        <v>1487.919618023659</v>
       </c>
       <c r="C20" t="n">
-        <v>771.079164745478</v>
+        <v>1094.74411652659</v>
       </c>
       <c r="D20" t="n">
-        <v>771.079164745478</v>
+        <v>1094.74411652659</v>
       </c>
       <c r="E20" t="n">
-        <v>771.079164745478</v>
+        <v>692.1605916431345</v>
       </c>
       <c r="F20" t="n">
-        <v>354.1847262754558</v>
+        <v>275.2661531731122</v>
       </c>
       <c r="G20" t="n">
-        <v>354.1847262754558</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="H20" t="n">
-        <v>45.69810145628912</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="I20" t="n">
-        <v>45.69810145628912</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="J20" t="n">
-        <v>55.87734761322107</v>
+        <v>55.87734761322106</v>
       </c>
       <c r="K20" t="n">
-        <v>604.7236109399004</v>
+        <v>104.1134357649935</v>
       </c>
       <c r="L20" t="n">
-        <v>1170.237616461478</v>
+        <v>669.6274412865712</v>
       </c>
       <c r="M20" t="n">
-        <v>1735.751621983056</v>
+        <v>1235.141446808149</v>
       </c>
       <c r="N20" t="n">
-        <v>2040.996230711606</v>
+        <v>1800.655452329727</v>
       </c>
       <c r="O20" t="n">
-        <v>2144.413796908144</v>
+        <v>1904.073018526265</v>
       </c>
       <c r="P20" t="n">
-        <v>2210.252646448614</v>
+        <v>1969.911868066735</v>
       </c>
       <c r="Q20" t="n">
-        <v>2228.382595239504</v>
+        <v>2228.382595239503</v>
       </c>
       <c r="R20" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="S20" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="T20" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="U20" t="n">
-        <v>2284.905072814456</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="V20" t="n">
-        <v>1942.798263517974</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="W20" t="n">
-        <v>1942.798263517974</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="X20" t="n">
-        <v>1942.798263517974</v>
+        <v>2284.905072814455</v>
       </c>
       <c r="Y20" t="n">
-        <v>1546.307554438575</v>
+        <v>1888.414363735056</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>67.03108422637337</v>
       </c>
       <c r="I21" t="n">
-        <v>45.69810145628912</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="J21" t="n">
-        <v>45.69810145628912</v>
+        <v>234.2641851902226</v>
       </c>
       <c r="K21" t="n">
-        <v>85.95508563870143</v>
+        <v>682.9612814148613</v>
       </c>
       <c r="L21" t="n">
-        <v>170.1952206432204</v>
+        <v>1248.475286936439</v>
       </c>
       <c r="M21" t="n">
-        <v>583.8927170029675</v>
+        <v>1359.361515448212</v>
       </c>
       <c r="N21" t="n">
-        <v>1149.406722524545</v>
+        <v>1482.548191671656</v>
       </c>
       <c r="O21" t="n">
-        <v>1714.920728046123</v>
+        <v>1688.777968267888</v>
       </c>
       <c r="P21" t="n">
-        <v>2273.041519153566</v>
+        <v>2246.898759375331</v>
       </c>
       <c r="Q21" t="n">
-        <v>2284.905072814456</v>
+        <v>2258.762313036221</v>
       </c>
       <c r="R21" t="n">
         <v>2284.905072814455</v>
@@ -5886,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>676.5001231733472</v>
+        <v>289.2129667410223</v>
       </c>
       <c r="C22" t="n">
-        <v>506.2950052393365</v>
+        <v>289.2129667410223</v>
       </c>
       <c r="D22" t="n">
-        <v>350.6618921418512</v>
+        <v>289.2129667410223</v>
       </c>
       <c r="E22" t="n">
-        <v>195.1030800010538</v>
+        <v>213.2690337062182</v>
       </c>
       <c r="F22" t="n">
-        <v>195.1030800010538</v>
+        <v>213.2690337062182</v>
       </c>
       <c r="G22" t="n">
-        <v>195.1030800010538</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="H22" t="n">
-        <v>45.69810145628912</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="I22" t="n">
-        <v>45.69810145628912</v>
+        <v>45.69810145628911</v>
       </c>
       <c r="J22" t="n">
-        <v>63.25995521414658</v>
+        <v>63.25995521414657</v>
       </c>
       <c r="K22" t="n">
         <v>222.881922056462</v>
@@ -5946,16 +5946,16 @@
         <v>1295.715097389394</v>
       </c>
       <c r="V22" t="n">
-        <v>1295.715097389394</v>
+        <v>1029.735752210218</v>
       </c>
       <c r="W22" t="n">
-        <v>1295.715097389394</v>
+        <v>746.405350141396</v>
       </c>
       <c r="X22" t="n">
-        <v>1084.820203048005</v>
+        <v>512.325027924379</v>
       </c>
       <c r="Y22" t="n">
-        <v>861.7081418646485</v>
+        <v>289.2129667410223</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2495.972412945691</v>
+        <v>2402.476923187357</v>
       </c>
       <c r="C23" t="n">
-        <v>2102.796911448621</v>
+        <v>2009.301421690287</v>
       </c>
       <c r="D23" t="n">
-        <v>1717.355782665289</v>
+        <v>1623.860292906955</v>
       </c>
       <c r="E23" t="n">
-        <v>1314.772257781834</v>
+        <v>1221.276768023499</v>
       </c>
       <c r="F23" t="n">
-        <v>897.8778193118112</v>
+        <v>818.2524024894167</v>
       </c>
       <c r="G23" t="n">
-        <v>486.2379663375264</v>
+        <v>406.6125495151319</v>
       </c>
       <c r="H23" t="n">
-        <v>177.7513415183597</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I23" t="n">
         <v>98.12592469596522</v>
@@ -6068,19 +6068,19 @@
         <v>98.12592469596522</v>
       </c>
       <c r="J24" t="n">
-        <v>98.12592469596522</v>
+        <v>286.6920084298987</v>
       </c>
       <c r="K24" t="n">
-        <v>546.823020920604</v>
+        <v>735.3891046545375</v>
       </c>
       <c r="L24" t="n">
-        <v>1203.788985211785</v>
+        <v>826.7458052649647</v>
       </c>
       <c r="M24" t="n">
-        <v>1314.675213723558</v>
+        <v>937.6320337767374</v>
       </c>
       <c r="N24" t="n">
-        <v>1437.861889947003</v>
+        <v>1060.818710000182</v>
       </c>
       <c r="O24" t="n">
         <v>1767.348551285798</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>591.5350879773904</v>
+        <v>641.1011227296001</v>
       </c>
       <c r="C25" t="n">
-        <v>421.3299700433796</v>
+        <v>641.1011227296001</v>
       </c>
       <c r="D25" t="n">
-        <v>265.6968569458944</v>
+        <v>485.4680096321148</v>
       </c>
       <c r="E25" t="n">
-        <v>265.6968569458944</v>
+        <v>378.2479512154663</v>
       </c>
       <c r="F25" t="n">
-        <v>265.6968569458944</v>
+        <v>378.2479512154663</v>
       </c>
       <c r="G25" t="n">
-        <v>98.12592469596522</v>
+        <v>210.6770189655372</v>
       </c>
       <c r="H25" t="n">
-        <v>98.12592469596522</v>
+        <v>210.6770189655372</v>
       </c>
       <c r="I25" t="n">
         <v>98.12592469596522</v>
@@ -6171,28 +6171,28 @@
         <v>1633.544451206226</v>
       </c>
       <c r="R25" t="n">
-        <v>1540.359095329646</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="S25" t="n">
-        <v>1540.359095329646</v>
+        <v>1442.633314700127</v>
       </c>
       <c r="T25" t="n">
-        <v>1540.359095329646</v>
+        <v>1209.833055375578</v>
       </c>
       <c r="U25" t="n">
-        <v>1374.925157442406</v>
+        <v>924.4315247984225</v>
       </c>
       <c r="V25" t="n">
-        <v>1108.94581226323</v>
+        <v>924.4315247984225</v>
       </c>
       <c r="W25" t="n">
-        <v>825.6154101944073</v>
+        <v>641.1011227296001</v>
       </c>
       <c r="X25" t="n">
-        <v>591.5350879773904</v>
+        <v>641.1011227296001</v>
       </c>
       <c r="Y25" t="n">
-        <v>591.5350879773904</v>
+        <v>641.1011227296001</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2495.972412945691</v>
+        <v>2416.346996123296</v>
       </c>
       <c r="C26" t="n">
-        <v>2102.796911448621</v>
+        <v>2023.171494626227</v>
       </c>
       <c r="D26" t="n">
-        <v>1717.355782665289</v>
+        <v>1637.730365842895</v>
       </c>
       <c r="E26" t="n">
-        <v>1314.772257781834</v>
+        <v>1235.146840959439</v>
       </c>
       <c r="F26" t="n">
-        <v>897.8778193118112</v>
+        <v>818.2524024894167</v>
       </c>
       <c r="G26" t="n">
-        <v>486.2379663375264</v>
+        <v>406.6125495151319</v>
       </c>
       <c r="H26" t="n">
-        <v>177.7513415183597</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I26" t="n">
         <v>98.12592469596522</v>
       </c>
       <c r="J26" t="n">
-        <v>369.457983324648</v>
+        <v>369.4579833246476</v>
       </c>
       <c r="K26" t="n">
-        <v>918.3042466513275</v>
+        <v>918.3042466513268</v>
       </c>
       <c r="L26" t="n">
         <v>1647.16750428966</v>
@@ -6262,16 +6262,16 @@
         <v>4302.02082737329</v>
       </c>
       <c r="V26" t="n">
-        <v>3959.914018076808</v>
+        <v>3973.784091012748</v>
       </c>
       <c r="W26" t="n">
-        <v>3588.914983045096</v>
+        <v>3602.785055981035</v>
       </c>
       <c r="X26" t="n">
-        <v>3292.957867736487</v>
+        <v>3213.332450914092</v>
       </c>
       <c r="Y26" t="n">
-        <v>2896.467158657088</v>
+        <v>2816.841741834693</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>98.12592469596522</v>
       </c>
       <c r="J27" t="n">
-        <v>98.12592469596522</v>
+        <v>286.6920084298987</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3829088783775</v>
+        <v>735.3891046545375</v>
       </c>
       <c r="L27" t="n">
-        <v>795.3488731695588</v>
+        <v>1110.583407976701</v>
       </c>
       <c r="M27" t="n">
-        <v>906.2351016813316</v>
+        <v>1221.469636488473</v>
       </c>
       <c r="N27" t="n">
-        <v>1769.71814084096</v>
+        <v>1344.656312711918</v>
       </c>
       <c r="O27" t="n">
-        <v>2259.182451173317</v>
+        <v>1442.905188106553</v>
       </c>
       <c r="P27" t="n">
-        <v>2325.469342393241</v>
+        <v>2001.025979213996</v>
       </c>
       <c r="Q27" t="n">
         <v>2337.332896054131</v>
@@ -6360,13 +6360,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>255.4518594829923</v>
+        <v>566.6437847212751</v>
       </c>
       <c r="C28" t="n">
-        <v>255.4518594829923</v>
+        <v>566.6437847212751</v>
       </c>
       <c r="D28" t="n">
-        <v>255.4518594829923</v>
+        <v>411.0106716237898</v>
       </c>
       <c r="E28" t="n">
         <v>255.4518594829923</v>
@@ -6408,28 +6408,28 @@
         <v>1633.544451206226</v>
       </c>
       <c r="R28" t="n">
-        <v>1633.544451206226</v>
+        <v>1540.359095329646</v>
       </c>
       <c r="S28" t="n">
-        <v>1442.633314700127</v>
+        <v>1349.447958823547</v>
       </c>
       <c r="T28" t="n">
-        <v>1442.633314700127</v>
+        <v>1349.447958823547</v>
       </c>
       <c r="U28" t="n">
-        <v>1157.231784122971</v>
+        <v>1349.447958823547</v>
       </c>
       <c r="V28" t="n">
-        <v>891.2524389437955</v>
+        <v>1349.447958823547</v>
       </c>
       <c r="W28" t="n">
-        <v>607.9220368749732</v>
+        <v>1209.04418681295</v>
       </c>
       <c r="X28" t="n">
-        <v>373.8417146579562</v>
+        <v>974.963864595933</v>
       </c>
       <c r="Y28" t="n">
-        <v>373.8417146579562</v>
+        <v>751.8518034125764</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2495.972412945691</v>
+        <v>2402.476923187357</v>
       </c>
       <c r="C29" t="n">
-        <v>2102.796911448621</v>
+        <v>2009.301421690287</v>
       </c>
       <c r="D29" t="n">
-        <v>1717.355782665289</v>
+        <v>1623.860292906955</v>
       </c>
       <c r="E29" t="n">
-        <v>1314.772257781834</v>
+        <v>1221.276768023499</v>
       </c>
       <c r="F29" t="n">
-        <v>897.8778193118112</v>
+        <v>804.382329553477</v>
       </c>
       <c r="G29" t="n">
-        <v>486.2379663375264</v>
+        <v>392.7424765791922</v>
       </c>
       <c r="H29" t="n">
-        <v>177.7513415183597</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I29" t="n">
         <v>98.12592469596522</v>
@@ -6466,7 +6466,7 @@
         <v>369.457983324648</v>
       </c>
       <c r="K29" t="n">
-        <v>918.3042466513273</v>
+        <v>918.3042466513275</v>
       </c>
       <c r="L29" t="n">
         <v>1647.16750428966</v>
@@ -6481,7 +6481,7 @@
         <v>3940.919762416755</v>
       </c>
       <c r="P29" t="n">
-        <v>4503.744536857262</v>
+        <v>4503.744536857263</v>
       </c>
       <c r="Q29" t="n">
         <v>4849.773757223309</v>
@@ -6508,7 +6508,7 @@
         <v>3199.462377978152</v>
       </c>
       <c r="Y29" t="n">
-        <v>2896.467158657088</v>
+        <v>2802.971668898753</v>
       </c>
     </row>
     <row r="30">
@@ -6545,22 +6545,22 @@
         <v>98.12592469596522</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3829088783776</v>
+        <v>138.3829088783775</v>
       </c>
       <c r="L30" t="n">
-        <v>222.6230438828966</v>
+        <v>795.3488731695588</v>
       </c>
       <c r="M30" t="n">
-        <v>689.1695707280721</v>
+        <v>906.2351016813316</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.652609887701</v>
+        <v>1029.421777904776</v>
       </c>
       <c r="O30" t="n">
-        <v>2259.182451173317</v>
+        <v>1735.951619190392</v>
       </c>
       <c r="P30" t="n">
-        <v>2325.469342393241</v>
+        <v>2294.072410297835</v>
       </c>
       <c r="Q30" t="n">
         <v>2337.332896054131</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>475.0133877211798</v>
+        <v>1116.647699498999</v>
       </c>
       <c r="C31" t="n">
-        <v>304.808269787169</v>
+        <v>946.4425815649879</v>
       </c>
       <c r="D31" t="n">
-        <v>253.6847368367627</v>
+        <v>840.5376766880554</v>
       </c>
       <c r="E31" t="n">
-        <v>98.12592469596522</v>
+        <v>684.9788645472579</v>
       </c>
       <c r="F31" t="n">
-        <v>98.12592469596522</v>
+        <v>527.6529297602309</v>
       </c>
       <c r="G31" t="n">
-        <v>98.12592469596522</v>
+        <v>360.0819975103018</v>
       </c>
       <c r="H31" t="n">
-        <v>98.12592469596522</v>
+        <v>210.6770189655372</v>
       </c>
       <c r="I31" t="n">
         <v>98.12592469596522</v>
@@ -6624,13 +6624,13 @@
         <v>115.6877784538227</v>
       </c>
       <c r="K31" t="n">
-        <v>275.3097452961382</v>
+        <v>275.3097452961381</v>
       </c>
       <c r="L31" t="n">
-        <v>538.9778690061851</v>
+        <v>538.977869006185</v>
       </c>
       <c r="M31" t="n">
-        <v>830.2209309440827</v>
+        <v>830.2209309440826</v>
       </c>
       <c r="N31" t="n">
         <v>1115.866536873026</v>
@@ -6645,28 +6645,28 @@
         <v>1633.544451206226</v>
       </c>
       <c r="R31" t="n">
-        <v>1633.544451206226</v>
+        <v>1540.359095329646</v>
       </c>
       <c r="S31" t="n">
-        <v>1633.544451206226</v>
+        <v>1349.447958823547</v>
       </c>
       <c r="T31" t="n">
-        <v>1400.744191881677</v>
+        <v>1116.647699498999</v>
       </c>
       <c r="U31" t="n">
-        <v>1400.744191881677</v>
+        <v>1116.647699498999</v>
       </c>
       <c r="V31" t="n">
-        <v>1400.744191881677</v>
+        <v>1116.647699498999</v>
       </c>
       <c r="W31" t="n">
-        <v>1117.413789812855</v>
+        <v>1116.647699498999</v>
       </c>
       <c r="X31" t="n">
-        <v>883.3334675958378</v>
+        <v>1116.647699498999</v>
       </c>
       <c r="Y31" t="n">
-        <v>660.2214064124811</v>
+        <v>1116.647699498999</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2495.972412945691</v>
+        <v>2402.476923187357</v>
       </c>
       <c r="C32" t="n">
-        <v>2102.796911448621</v>
+        <v>2009.301421690287</v>
       </c>
       <c r="D32" t="n">
-        <v>1717.355782665289</v>
+        <v>1623.860292906955</v>
       </c>
       <c r="E32" t="n">
-        <v>1314.772257781834</v>
+        <v>1221.276768023499</v>
       </c>
       <c r="F32" t="n">
-        <v>897.8778193118112</v>
+        <v>804.382329553477</v>
       </c>
       <c r="G32" t="n">
-        <v>486.2379663375264</v>
+        <v>392.7424765791922</v>
       </c>
       <c r="H32" t="n">
-        <v>177.7513415183597</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I32" t="n">
         <v>98.12592469596522</v>
@@ -6709,7 +6709,7 @@
         <v>1647.16750428966</v>
       </c>
       <c r="M32" t="n">
-        <v>2455.25533819078</v>
+        <v>2455.255338190779</v>
       </c>
       <c r="N32" t="n">
         <v>3249.394396278032</v>
@@ -6733,19 +6733,19 @@
         <v>4557.651724735674</v>
       </c>
       <c r="U32" t="n">
-        <v>4395.516317131624</v>
+        <v>4302.02082737329</v>
       </c>
       <c r="V32" t="n">
-        <v>4053.409507835142</v>
+        <v>3959.914018076808</v>
       </c>
       <c r="W32" t="n">
-        <v>3682.41047280343</v>
+        <v>3588.914983045096</v>
       </c>
       <c r="X32" t="n">
-        <v>3292.957867736487</v>
+        <v>3199.462377978152</v>
       </c>
       <c r="Y32" t="n">
-        <v>2896.467158657088</v>
+        <v>2802.971668898753</v>
       </c>
     </row>
     <row r="33">
@@ -6779,28 +6779,28 @@
         <v>98.12592469596522</v>
       </c>
       <c r="J33" t="n">
-        <v>98.12592469596522</v>
+        <v>286.6920084298987</v>
       </c>
       <c r="K33" t="n">
-        <v>138.3829088783776</v>
+        <v>735.3891046545375</v>
       </c>
       <c r="L33" t="n">
-        <v>795.3488731695591</v>
+        <v>819.6292396590566</v>
       </c>
       <c r="M33" t="n">
-        <v>906.2351016813319</v>
+        <v>930.5154681708294</v>
       </c>
       <c r="N33" t="n">
-        <v>1552.652609887701</v>
+        <v>1053.702144394274</v>
       </c>
       <c r="O33" t="n">
-        <v>2259.182451173317</v>
+        <v>1760.23198567989</v>
       </c>
       <c r="P33" t="n">
-        <v>2325.469342393241</v>
+        <v>1974.883219435762</v>
       </c>
       <c r="Q33" t="n">
-        <v>2337.332896054131</v>
+        <v>2311.190136275897</v>
       </c>
       <c r="R33" t="n">
         <v>2337.332896054131</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3963.884481735326</v>
+        <v>238.7672359629265</v>
       </c>
       <c r="C34" t="n">
-        <v>3963.884481735326</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="D34" t="n">
-        <v>3963.884481735326</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="E34" t="n">
-        <v>3808.325669594528</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="F34" t="n">
-        <v>3650.999734807501</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="G34" t="n">
-        <v>3483.428802557572</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="H34" t="n">
-        <v>3483.428802557572</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="I34" t="n">
-        <v>3370.877708288</v>
+        <v>98.12592469596522</v>
       </c>
       <c r="J34" t="n">
-        <v>3388.439562045858</v>
+        <v>115.6877784538227</v>
       </c>
       <c r="K34" t="n">
-        <v>3548.061528888173</v>
+        <v>275.3097452961382</v>
       </c>
       <c r="L34" t="n">
-        <v>3811.72965259822</v>
+        <v>538.9778690061851</v>
       </c>
       <c r="M34" t="n">
-        <v>4102.972714536118</v>
+        <v>830.2209309440827</v>
       </c>
       <c r="N34" t="n">
-        <v>4388.618320465062</v>
+        <v>1115.866536873026</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.957760533917</v>
+        <v>1373.205976941882</v>
       </c>
       <c r="P34" t="n">
-        <v>4846.810237730175</v>
+        <v>1574.058454138139</v>
       </c>
       <c r="Q34" t="n">
-        <v>4906.296234798261</v>
+        <v>1633.544451206226</v>
       </c>
       <c r="R34" t="n">
-        <v>4813.110878921681</v>
+        <v>1540.359095329646</v>
       </c>
       <c r="S34" t="n">
-        <v>4813.110878921681</v>
+        <v>1540.359095329646</v>
       </c>
       <c r="T34" t="n">
-        <v>4813.110878921681</v>
+        <v>1307.558836005097</v>
       </c>
       <c r="U34" t="n">
-        <v>4813.110878921681</v>
+        <v>1022.157305427942</v>
       </c>
       <c r="V34" t="n">
-        <v>4547.131533742506</v>
+        <v>756.1779602487658</v>
       </c>
       <c r="W34" t="n">
-        <v>4263.801131673684</v>
+        <v>472.8475581799434</v>
       </c>
       <c r="X34" t="n">
-        <v>4186.996542918682</v>
+        <v>238.7672359629265</v>
       </c>
       <c r="Y34" t="n">
-        <v>3963.884481735326</v>
+        <v>238.7672359629265</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1307.566090801466</v>
+        <v>1619.676786171913</v>
       </c>
       <c r="C35" t="n">
-        <v>1307.566090801466</v>
+        <v>1226.501284674844</v>
       </c>
       <c r="D35" t="n">
-        <v>922.1249620181334</v>
+        <v>841.0601558915114</v>
       </c>
       <c r="E35" t="n">
-        <v>922.1249620181334</v>
+        <v>841.0601558915114</v>
       </c>
       <c r="F35" t="n">
-        <v>505.2305235481111</v>
+        <v>841.0601558915114</v>
       </c>
       <c r="G35" t="n">
-        <v>133.0712795888963</v>
+        <v>429.4203029172265</v>
       </c>
       <c r="H35" t="n">
-        <v>133.0712795888963</v>
+        <v>120.9336780980599</v>
       </c>
       <c r="I35" t="n">
         <v>53.44586276650187</v>
       </c>
       <c r="J35" t="n">
-        <v>63.62510892343386</v>
+        <v>324.7779213951846</v>
       </c>
       <c r="K35" t="n">
-        <v>612.4713722501132</v>
+        <v>500.7291185908138</v>
       </c>
       <c r="L35" t="n">
-        <v>1273.863923985574</v>
+        <v>1162.121670326274</v>
       </c>
       <c r="M35" t="n">
-        <v>1935.256475721034</v>
+        <v>1823.514222061735</v>
       </c>
       <c r="N35" t="n">
         <v>2484.906773797195</v>
@@ -6964,25 +6964,25 @@
         <v>2672.293138325093</v>
       </c>
       <c r="S35" t="n">
-        <v>2540.482724844255</v>
+        <v>2672.293138325093</v>
       </c>
       <c r="T35" t="n">
-        <v>2323.648628262506</v>
+        <v>2672.293138325093</v>
       </c>
       <c r="U35" t="n">
-        <v>2068.017730900121</v>
+        <v>2416.662240962709</v>
       </c>
       <c r="V35" t="n">
-        <v>2068.017730900121</v>
+        <v>2416.662240962709</v>
       </c>
       <c r="W35" t="n">
-        <v>1697.018695868409</v>
+        <v>2416.662240962709</v>
       </c>
       <c r="X35" t="n">
-        <v>1307.566090801466</v>
+        <v>2416.662240962709</v>
       </c>
       <c r="Y35" t="n">
-        <v>1307.566090801466</v>
+        <v>2020.17153188331</v>
       </c>
     </row>
     <row r="36">
@@ -7019,13 +7019,13 @@
         <v>53.44586276650187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.70284694891421</v>
+        <v>170.2370685944759</v>
       </c>
       <c r="L36" t="n">
-        <v>177.9429819534333</v>
+        <v>827.2030328856573</v>
       </c>
       <c r="M36" t="n">
-        <v>839.335533688894</v>
+        <v>938.0892613974302</v>
       </c>
       <c r="N36" t="n">
         <v>1061.275937620875</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1787.535408926597</v>
+        <v>221.016795016431</v>
       </c>
       <c r="C37" t="n">
-        <v>1617.330290992587</v>
+        <v>221.016795016431</v>
       </c>
       <c r="D37" t="n">
-        <v>1617.330290992587</v>
+        <v>221.016795016431</v>
       </c>
       <c r="E37" t="n">
-        <v>1461.771478851789</v>
+        <v>221.016795016431</v>
       </c>
       <c r="F37" t="n">
-        <v>1304.445544064762</v>
+        <v>221.016795016431</v>
       </c>
       <c r="G37" t="n">
-        <v>1136.874611814833</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="H37" t="n">
-        <v>1136.874611814833</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="I37" t="n">
-        <v>1136.874611814833</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J37" t="n">
-        <v>1154.43646557269</v>
+        <v>71.00771652435935</v>
       </c>
       <c r="K37" t="n">
-        <v>1314.058432415006</v>
+        <v>230.6296833666748</v>
       </c>
       <c r="L37" t="n">
-        <v>1577.726556125053</v>
+        <v>494.2978070767217</v>
       </c>
       <c r="M37" t="n">
-        <v>1868.96961806295</v>
+        <v>785.5408690146194</v>
       </c>
       <c r="N37" t="n">
-        <v>2154.615223991894</v>
+        <v>1071.186474943563</v>
       </c>
       <c r="O37" t="n">
-        <v>2411.95466406075</v>
+        <v>1328.525915012419</v>
       </c>
       <c r="P37" t="n">
-        <v>2612.807141257007</v>
+        <v>1529.378392208676</v>
       </c>
       <c r="Q37" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="R37" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="S37" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="T37" t="n">
-        <v>2490.154151903738</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="U37" t="n">
-        <v>2490.154151903738</v>
+        <v>1303.462858699607</v>
       </c>
       <c r="V37" t="n">
-        <v>2490.154151903738</v>
+        <v>1037.483513520431</v>
       </c>
       <c r="W37" t="n">
-        <v>2206.823749834916</v>
+        <v>754.1531114516088</v>
       </c>
       <c r="X37" t="n">
-        <v>1972.743427617899</v>
+        <v>520.0727892345918</v>
       </c>
       <c r="Y37" t="n">
-        <v>1972.743427617899</v>
+        <v>296.9607280512352</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1190.466779029975</v>
+        <v>1575.907907813308</v>
       </c>
       <c r="C38" t="n">
-        <v>1190.466779029975</v>
+        <v>1575.907907813308</v>
       </c>
       <c r="D38" t="n">
         <v>1190.466779029975</v>
@@ -7174,28 +7174,28 @@
         <v>53.44586276650187</v>
       </c>
       <c r="J38" t="n">
-        <v>63.62510892343386</v>
+        <v>324.7779213951846</v>
       </c>
       <c r="K38" t="n">
-        <v>612.4713722501132</v>
+        <v>873.6241847218639</v>
       </c>
       <c r="L38" t="n">
-        <v>1273.863923985574</v>
+        <v>1427.461976521827</v>
       </c>
       <c r="M38" t="n">
-        <v>1484.798631721664</v>
+        <v>1541.321109296616</v>
       </c>
       <c r="N38" t="n">
-        <v>1603.499099747049</v>
+        <v>1660.021577322001</v>
       </c>
       <c r="O38" t="n">
-        <v>1706.916665943587</v>
+        <v>1763.439143518539</v>
       </c>
       <c r="P38" t="n">
-        <v>2269.741440384094</v>
+        <v>2326.263917959046</v>
       </c>
       <c r="Q38" t="n">
-        <v>2615.770660750141</v>
+        <v>2672.293138325093</v>
       </c>
       <c r="R38" t="n">
         <v>2672.293138325093</v>
@@ -7216,10 +7216,10 @@
         <v>1703.556396634515</v>
       </c>
       <c r="X38" t="n">
-        <v>1314.103791567572</v>
+        <v>1575.907907813308</v>
       </c>
       <c r="Y38" t="n">
-        <v>1190.466779029975</v>
+        <v>1575.907907813308</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1195.713563085165</v>
+        <v>816.0732588847388</v>
       </c>
       <c r="C39" t="n">
-        <v>1045.059332645257</v>
+        <v>665.419028444831</v>
       </c>
       <c r="D39" t="n">
-        <v>914.9703652667375</v>
+        <v>535.3300610663114</v>
       </c>
       <c r="E39" t="n">
-        <v>778.5238743776252</v>
+        <v>398.8835701771991</v>
       </c>
       <c r="F39" t="n">
-        <v>654.0920682607571</v>
+        <v>274.4517640603309</v>
       </c>
       <c r="G39" t="n">
-        <v>534.8470750253227</v>
+        <v>155.2067708248966</v>
       </c>
       <c r="H39" t="n">
-        <v>454.4191497370122</v>
+        <v>74.77884553658612</v>
       </c>
       <c r="I39" t="n">
-        <v>433.086166966928</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J39" t="n">
-        <v>433.086166966928</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="K39" t="n">
-        <v>473.3431511493403</v>
+        <v>408.937381756056</v>
       </c>
       <c r="L39" t="n">
-        <v>1130.309115440522</v>
+        <v>1065.903346047237</v>
       </c>
       <c r="M39" t="n">
-        <v>1271.357589973359</v>
+        <v>1176.78957455901</v>
       </c>
       <c r="N39" t="n">
-        <v>1932.750141708819</v>
+        <v>1299.976250782455</v>
       </c>
       <c r="O39" t="n">
-        <v>2594.14269344428</v>
+        <v>1398.22512617709</v>
       </c>
       <c r="P39" t="n">
-        <v>2660.429584664204</v>
+        <v>1956.345917284533</v>
       </c>
       <c r="Q39" t="n">
-        <v>2672.293138325093</v>
+        <v>2292.652834124668</v>
       </c>
       <c r="R39" t="n">
-        <v>2672.293138325093</v>
+        <v>2292.652834124668</v>
       </c>
       <c r="S39" t="n">
-        <v>2552.497472512637</v>
+        <v>2172.857168312211</v>
       </c>
       <c r="T39" t="n">
-        <v>2378.797976029934</v>
+        <v>1999.157671829508</v>
       </c>
       <c r="U39" t="n">
-        <v>2168.788439596253</v>
+        <v>1789.148135395827</v>
       </c>
       <c r="V39" t="n">
-        <v>1946.24843796732</v>
+        <v>1566.608133766894</v>
       </c>
       <c r="W39" t="n">
-        <v>1716.131192100607</v>
+        <v>1336.490887900181</v>
       </c>
       <c r="X39" t="n">
-        <v>1526.824114450619</v>
+        <v>1147.183810250193</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.509897526126</v>
+        <v>967.8695933257002</v>
       </c>
     </row>
     <row r="40">
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>379.6917954727667</v>
+        <v>209.0046749072994</v>
       </c>
       <c r="C40" t="n">
-        <v>358.4839544087517</v>
+        <v>209.0046749072994</v>
       </c>
       <c r="D40" t="n">
-        <v>202.8508413112665</v>
+        <v>209.0046749072994</v>
       </c>
       <c r="E40" t="n">
-        <v>202.8508413112665</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="F40" t="n">
-        <v>202.8508413112665</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="G40" t="n">
-        <v>202.8508413112665</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="H40" t="n">
         <v>53.44586276650187</v>
@@ -7368,16 +7368,16 @@
         <v>879.7514628689594</v>
       </c>
       <c r="V40" t="n">
-        <v>613.7721176897836</v>
+        <v>715.4471381594783</v>
       </c>
       <c r="W40" t="n">
-        <v>613.7721176897836</v>
+        <v>432.116736090656</v>
       </c>
       <c r="X40" t="n">
-        <v>379.6917954727667</v>
+        <v>432.116736090656</v>
       </c>
       <c r="Y40" t="n">
-        <v>379.6917954727667</v>
+        <v>209.0046749072994</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1743.497270053458</v>
+        <v>1669.515727597002</v>
       </c>
       <c r="C41" t="n">
-        <v>1743.497270053458</v>
+        <v>1641.222411049136</v>
       </c>
       <c r="D41" t="n">
-        <v>1364.189095916659</v>
+        <v>1255.781282265803</v>
       </c>
       <c r="E41" t="n">
-        <v>961.6055710332034</v>
+        <v>853.1977573823478</v>
       </c>
       <c r="F41" t="n">
-        <v>544.7111325631812</v>
+        <v>853.1977573823478</v>
       </c>
       <c r="G41" t="n">
-        <v>133.0712795888963</v>
+        <v>441.557904408063</v>
       </c>
       <c r="H41" t="n">
         <v>133.0712795888963</v>
       </c>
       <c r="I41" t="n">
-        <v>53.44586276650185</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J41" t="n">
-        <v>63.62510892343385</v>
+        <v>324.7779213951846</v>
       </c>
       <c r="K41" t="n">
-        <v>111.8611970752063</v>
+        <v>873.6241847218639</v>
       </c>
       <c r="L41" t="n">
-        <v>547.6242072123997</v>
+        <v>1535.016736457324</v>
       </c>
       <c r="M41" t="n">
-        <v>1209.01675894786</v>
+        <v>2196.409288192785</v>
       </c>
       <c r="N41" t="n">
-        <v>1870.409310683321</v>
+        <v>2484.906773797195</v>
       </c>
       <c r="O41" t="n">
-        <v>2531.801862418781</v>
+        <v>2588.324339993734</v>
       </c>
       <c r="P41" t="n">
-        <v>2597.64071195925</v>
+        <v>2654.163189534203</v>
       </c>
       <c r="Q41" t="n">
-        <v>2615.77066075014</v>
+        <v>2672.293138325093</v>
       </c>
       <c r="R41" t="n">
         <v>2672.293138325093</v>
       </c>
       <c r="S41" t="n">
-        <v>2540.482724844254</v>
+        <v>2672.293138325093</v>
       </c>
       <c r="T41" t="n">
-        <v>2540.482724844254</v>
+        <v>2455.459041743344</v>
       </c>
       <c r="U41" t="n">
-        <v>2540.482724844254</v>
+        <v>2455.459041743344</v>
       </c>
       <c r="V41" t="n">
-        <v>2540.482724844254</v>
+        <v>2455.459041743344</v>
       </c>
       <c r="W41" t="n">
-        <v>2540.482724844254</v>
+        <v>2455.459041743344</v>
       </c>
       <c r="X41" t="n">
-        <v>2540.482724844254</v>
+        <v>2066.006436676401</v>
       </c>
       <c r="Y41" t="n">
-        <v>2143.992015764855</v>
+        <v>1669.515727597002</v>
       </c>
     </row>
     <row r="42">
@@ -7484,34 +7484,34 @@
         <v>155.2067708248966</v>
       </c>
       <c r="H42" t="n">
-        <v>74.7788455365861</v>
+        <v>74.77884553658612</v>
       </c>
       <c r="I42" t="n">
-        <v>53.44586276650185</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J42" t="n">
         <v>242.0119465004353</v>
       </c>
       <c r="K42" t="n">
-        <v>282.2689306828477</v>
+        <v>690.7090427250741</v>
       </c>
       <c r="L42" t="n">
-        <v>366.5090656873667</v>
+        <v>1347.675007016256</v>
       </c>
       <c r="M42" t="n">
-        <v>1027.901617422827</v>
+        <v>1458.561235528028</v>
       </c>
       <c r="N42" t="n">
-        <v>1689.294169158288</v>
+        <v>1581.747911751473</v>
       </c>
       <c r="O42" t="n">
-        <v>2214.502389243854</v>
+        <v>1679.996787146108</v>
       </c>
       <c r="P42" t="n">
-        <v>2280.789280463778</v>
+        <v>1930.203157506299</v>
       </c>
       <c r="Q42" t="n">
-        <v>2292.652834124668</v>
+        <v>2266.510074346434</v>
       </c>
       <c r="R42" t="n">
         <v>2292.652834124668</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2203.754717564969</v>
+        <v>646.4526362138274</v>
       </c>
       <c r="C43" t="n">
-        <v>2033.549599630958</v>
+        <v>646.4526362138274</v>
       </c>
       <c r="D43" t="n">
-        <v>1877.916486533473</v>
+        <v>646.4526362138274</v>
       </c>
       <c r="E43" t="n">
-        <v>1722.357674392675</v>
+        <v>490.89382407303</v>
       </c>
       <c r="F43" t="n">
-        <v>1565.031739605648</v>
+        <v>333.5678892860029</v>
       </c>
       <c r="G43" t="n">
-        <v>1397.460807355719</v>
+        <v>165.9969570360738</v>
       </c>
       <c r="H43" t="n">
-        <v>1248.055828810954</v>
+        <v>165.9969570360738</v>
       </c>
       <c r="I43" t="n">
-        <v>1136.874611814832</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J43" t="n">
-        <v>1154.436465572689</v>
+        <v>71.00771652435935</v>
       </c>
       <c r="K43" t="n">
-        <v>1314.058432415005</v>
+        <v>230.6296833666748</v>
       </c>
       <c r="L43" t="n">
-        <v>1577.726556125052</v>
+        <v>494.2978070767217</v>
       </c>
       <c r="M43" t="n">
-        <v>1868.969618062949</v>
+        <v>785.5408690146194</v>
       </c>
       <c r="N43" t="n">
-        <v>2154.615223991893</v>
+        <v>1071.186474943563</v>
       </c>
       <c r="O43" t="n">
-        <v>2411.954664060749</v>
+        <v>1328.525915012419</v>
       </c>
       <c r="P43" t="n">
-        <v>2612.807141257006</v>
+        <v>1529.378392208676</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="R43" t="n">
-        <v>2672.293138325093</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="S43" t="n">
-        <v>2672.293138325093</v>
+        <v>1397.953252770664</v>
       </c>
       <c r="T43" t="n">
-        <v>2672.293138325093</v>
+        <v>1397.953252770664</v>
       </c>
       <c r="U43" t="n">
-        <v>2672.293138325093</v>
+        <v>1112.551722193508</v>
       </c>
       <c r="V43" t="n">
-        <v>2672.293138325093</v>
+        <v>1112.551722193508</v>
       </c>
       <c r="W43" t="n">
-        <v>2388.96273625627</v>
+        <v>829.2213201246857</v>
       </c>
       <c r="X43" t="n">
-        <v>2388.96273625627</v>
+        <v>646.4526362138274</v>
       </c>
       <c r="Y43" t="n">
-        <v>2388.96273625627</v>
+        <v>646.4526362138274</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1563.196988163849</v>
+        <v>1803.337435301561</v>
       </c>
       <c r="C44" t="n">
-        <v>1563.196988163849</v>
+        <v>1410.161933804491</v>
       </c>
       <c r="D44" t="n">
-        <v>1563.196988163849</v>
+        <v>1364.189095916659</v>
       </c>
       <c r="E44" t="n">
-        <v>1160.613463280394</v>
+        <v>961.6055710332034</v>
       </c>
       <c r="F44" t="n">
-        <v>743.7190248103715</v>
+        <v>544.7111325631812</v>
       </c>
       <c r="G44" t="n">
-        <v>361.9324875856685</v>
+        <v>133.0712795888963</v>
       </c>
       <c r="H44" t="n">
-        <v>53.44586276650185</v>
+        <v>133.0712795888963</v>
       </c>
       <c r="I44" t="n">
-        <v>53.44586276650185</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J44" t="n">
-        <v>63.62510892343385</v>
+        <v>324.7779213951846</v>
       </c>
       <c r="K44" t="n">
-        <v>111.8611970752063</v>
+        <v>873.6241847218639</v>
       </c>
       <c r="L44" t="n">
-        <v>195.6884749618234</v>
+        <v>957.4514626084811</v>
       </c>
       <c r="M44" t="n">
-        <v>440.6540400476175</v>
+        <v>1071.31059538327</v>
       </c>
       <c r="N44" t="n">
-        <v>1102.046591783078</v>
+        <v>1190.011063408655</v>
       </c>
       <c r="O44" t="n">
-        <v>1763.439143518538</v>
+        <v>1851.403615144116</v>
       </c>
       <c r="P44" t="n">
-        <v>2326.263917959046</v>
+        <v>2269.741440384094</v>
       </c>
       <c r="Q44" t="n">
-        <v>2672.293138325093</v>
+        <v>2615.770660750141</v>
       </c>
       <c r="R44" t="n">
         <v>2672.293138325093</v>
       </c>
       <c r="S44" t="n">
-        <v>2540.482724844254</v>
+        <v>2672.293138325093</v>
       </c>
       <c r="T44" t="n">
-        <v>2323.648628262505</v>
+        <v>2455.459041743344</v>
       </c>
       <c r="U44" t="n">
-        <v>2323.648628262505</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="V44" t="n">
-        <v>2323.648628262505</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="W44" t="n">
-        <v>1952.649593230793</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="X44" t="n">
-        <v>1563.196988163849</v>
+        <v>2199.82814438096</v>
       </c>
       <c r="Y44" t="n">
-        <v>1563.196988163849</v>
+        <v>1803.337435301561</v>
       </c>
     </row>
     <row r="45">
@@ -7721,31 +7721,31 @@
         <v>155.2067708248966</v>
       </c>
       <c r="H45" t="n">
-        <v>74.7788455365861</v>
+        <v>74.77884553658612</v>
       </c>
       <c r="I45" t="n">
-        <v>53.44586276650185</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J45" t="n">
-        <v>53.44586276650185</v>
+        <v>242.0119465004353</v>
       </c>
       <c r="K45" t="n">
-        <v>93.7028469489142</v>
+        <v>690.7090427250741</v>
       </c>
       <c r="L45" t="n">
-        <v>230.3247340374726</v>
+        <v>1347.675007016256</v>
       </c>
       <c r="M45" t="n">
-        <v>891.717285772933</v>
+        <v>1458.561235528028</v>
       </c>
       <c r="N45" t="n">
-        <v>1553.109837508393</v>
+        <v>1581.747911751473</v>
       </c>
       <c r="O45" t="n">
-        <v>2214.502389243854</v>
+        <v>1679.996787146108</v>
       </c>
       <c r="P45" t="n">
-        <v>2280.789280463778</v>
+        <v>1956.345917284533</v>
       </c>
       <c r="Q45" t="n">
         <v>2292.652834124668</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>472.2224486101667</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="C46" t="n">
-        <v>302.0173306761559</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="D46" t="n">
-        <v>302.0173306761559</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="E46" t="n">
-        <v>302.0173306761559</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="F46" t="n">
-        <v>202.8508413112665</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="G46" t="n">
-        <v>202.8508413112665</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="H46" t="n">
-        <v>53.44586276650185</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="I46" t="n">
-        <v>53.44586276650185</v>
+        <v>53.44586276650187</v>
       </c>
       <c r="J46" t="n">
-        <v>71.00771652435932</v>
+        <v>71.00771652435935</v>
       </c>
       <c r="K46" t="n">
         <v>230.6296833666748</v>
@@ -7833,25 +7833,25 @@
         <v>1588.864389276763</v>
       </c>
       <c r="S46" t="n">
-        <v>1397.953252770664</v>
+        <v>1588.864389276763</v>
       </c>
       <c r="T46" t="n">
-        <v>1397.953252770664</v>
+        <v>1356.064129952214</v>
       </c>
       <c r="U46" t="n">
-        <v>1397.953252770664</v>
+        <v>1245.156012106175</v>
       </c>
       <c r="V46" t="n">
-        <v>1397.953252770664</v>
+        <v>979.1766669269991</v>
       </c>
       <c r="W46" t="n">
-        <v>1114.622850701842</v>
+        <v>695.8462648581767</v>
       </c>
       <c r="X46" t="n">
-        <v>880.5425284848246</v>
+        <v>461.7659426411598</v>
       </c>
       <c r="Y46" t="n">
-        <v>657.430467301468</v>
+        <v>238.6538814578032</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>130.4053320276681</v>
       </c>
       <c r="K2" t="n">
-        <v>155.7838972645594</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>165.9736638158137</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>149.7250515977273</v>
+        <v>161.9363843058645</v>
       </c>
       <c r="N2" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>162.2893315094184</v>
       </c>
       <c r="P2" t="n">
-        <v>162.5127799490625</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>157.2241925037142</v>
@@ -8057,22 +8057,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>95.16995141865534</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>102.3224294186553</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>102.2716795650555</v>
       </c>
       <c r="M3" t="n">
-        <v>104.5984547574492</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>98.09760693948866</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>105.4130529742109</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
@@ -8139,7 +8139,7 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K4" t="n">
-        <v>96.58411189616999</v>
+        <v>83.85861781084799</v>
       </c>
       <c r="L4" t="n">
         <v>87.67503958280489</v>
@@ -8151,10 +8151,10 @@
         <v>95.72109798772357</v>
       </c>
       <c r="O4" t="n">
-        <v>89.9967499936978</v>
+        <v>98.7513186916826</v>
       </c>
       <c r="P4" t="n">
-        <v>98.27777132993073</v>
+        <v>102.2486967172679</v>
       </c>
       <c r="Q4" t="n">
         <v>101.9350150692923</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>130.4053320276681</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>155.2697358873746</v>
       </c>
       <c r="L5" t="n">
         <v>153.2481697304917</v>
@@ -8227,16 +8227,16 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>161.8439854231061</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>162.2893315094184</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>163.0269413262472</v>
       </c>
       <c r="Q5" t="n">
-        <v>156.7100311265294</v>
+        <v>157.2241925037142</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,10 +8294,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>95.16995141865534</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>102.3224294186553</v>
       </c>
       <c r="L6" t="n">
         <v>102.7858409422402</v>
@@ -8309,13 +8309,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>105.4130529742109</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.713647241236</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8379,22 +8379,22 @@
         <v>83.85861781084799</v>
       </c>
       <c r="L7" t="n">
-        <v>96.42960828078968</v>
+        <v>100.4005336681269</v>
       </c>
       <c r="M7" t="n">
-        <v>103.0272536512653</v>
+        <v>102.5130922740805</v>
       </c>
       <c r="N7" t="n">
         <v>95.72109798772357</v>
       </c>
       <c r="O7" t="n">
-        <v>102.7222440790198</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P7" t="n">
-        <v>89.52320263194594</v>
+        <v>102.2486967172679</v>
       </c>
       <c r="Q7" t="n">
-        <v>101.9350150692923</v>
+        <v>98.47825105913979</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>130.4053320276681</v>
       </c>
       <c r="K8" t="n">
-        <v>155.7838972645594</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>153.2481697304917</v>
@@ -8467,13 +8467,13 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>162.2893315094184</v>
+        <v>161.7751701322337</v>
       </c>
       <c r="P8" t="n">
         <v>163.0269413262472</v>
       </c>
       <c r="Q8" t="n">
-        <v>156.7100311265294</v>
+        <v>157.2241925037142</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,28 +8531,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>95.16995141865534</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>102.2716795650555</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>105.1126161346339</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>105.4130529742109</v>
+        <v>104.8988915970262</v>
       </c>
       <c r="P9" t="n">
         <v>99.80885890463665</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>103.713647241236</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8622,13 +8622,13 @@
         <v>103.0272536512653</v>
       </c>
       <c r="N10" t="n">
-        <v>91.75017260038636</v>
+        <v>95.72109798772357</v>
       </c>
       <c r="O10" t="n">
-        <v>102.7222440790198</v>
+        <v>89.9967499936978</v>
       </c>
       <c r="P10" t="n">
-        <v>89.52320263194594</v>
+        <v>98.27777132993073</v>
       </c>
       <c r="Q10" t="n">
         <v>101.9350150692923</v>
@@ -8692,13 +8692,13 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>73.09239190690593</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>69.43153304340191</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>466.7640801263021</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8777,19 +8777,19 @@
         <v>486.1352227445038</v>
       </c>
       <c r="M12" t="n">
-        <v>185.4850823931486</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>446.7952821193266</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>304.5597956445512</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>44.60697684683822</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
-        <v>398.1093277188712</v>
+        <v>422.4944255435134</v>
       </c>
       <c r="M14" t="n">
-        <v>456.2170431785747</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>451.3268055517102</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.2113854294513</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>102.5176150018526</v>
+        <v>45.42420330998193</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9008,16 +9008,16 @@
         <v>6.231223480599951</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>484.3638909611899</v>
       </c>
       <c r="M15" t="n">
-        <v>450.1343785814868</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>446.7952821193266</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9169,22 +9169,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
-        <v>486.5522501363239</v>
+        <v>486.5522501363238</v>
       </c>
       <c r="M17" t="n">
-        <v>456.2170431785747</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>245.5218366445627</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>370.5274943936857</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>45.42420330998193</v>
@@ -9242,13 +9242,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>6.231223480599951</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>384.3876098974874</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>486.1352227445038</v>
+        <v>267.4862712519302</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9403,16 +9403,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>505.666843611017</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>486.5522501363239</v>
+        <v>486.5522501363238</v>
       </c>
       <c r="M20" t="n">
-        <v>456.2170431785747</v>
+        <v>456.2170431785746</v>
       </c>
       <c r="N20" t="n">
-        <v>188.4284249526919</v>
+        <v>451.32680555171</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>242.7684630119985</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,22 +9479,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>6.231223480599951</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>486.1352227445037</v>
       </c>
       <c r="M21" t="n">
-        <v>305.8699675232064</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>446.7952821193266</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>471.9849799262047</v>
+        <v>109.0716173753505</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>44.6069768468373</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>6.231223480599951</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>7.188450106977967</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,7 +9731,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>233.5735211557178</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>6.231223480599951</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>293.8930993107518</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>395.1671059976988</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>44.60697684683822</v>
@@ -10190,31 +10190,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>6.231223480599937</v>
+        <v>6.231223480599951</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>359.2528265993967</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>31.71407282364274</v>
       </c>
       <c r="R30" t="n">
-        <v>44.6069768468382</v>
+        <v>44.60697684683822</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10360,7 +10360,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N32" t="n">
-        <v>682.2612020826941</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O32" t="n">
         <v>594.0482827698827</v>
@@ -10427,31 +10427,31 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>6.231223480599937</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>528.5159919019437</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>149.862972258533</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
-        <v>44.6069768468382</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>505.666843611017</v>
+        <v>129.0051606503603</v>
       </c>
       <c r="L35" t="n">
         <v>583.3992665139833</v>
@@ -10597,7 +10597,7 @@
         <v>553.064059556234</v>
       </c>
       <c r="N35" t="n">
-        <v>435.3028586371477</v>
+        <v>548.1738219293695</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10667,16 +10667,16 @@
         <v>6.231223480599937</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>77.30729459147643</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>556.0669931552402</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>99.7512401096325</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>568.8319963038641</v>
@@ -10822,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L38" t="n">
-        <v>583.3992665139833</v>
+        <v>474.7580948619653</v>
       </c>
       <c r="M38" t="n">
-        <v>98.05613632454643</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
-        <v>102.5176150018526</v>
+        <v>45.42420330998191</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,25 +10904,25 @@
         <v>6.231223480599937</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>318.4187220274159</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>30.46691517279207</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>543.642298496986</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>568.8319963038641</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>44.6069768468382</v>
@@ -11059,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L41" t="n">
-        <v>355.4906386369457</v>
+        <v>583.3992665139833</v>
       </c>
       <c r="M41" t="n">
-        <v>553.0640595562338</v>
+        <v>553.064059556234</v>
       </c>
       <c r="N41" t="n">
-        <v>548.1738219293693</v>
+        <v>171.5121389687127</v>
       </c>
       <c r="O41" t="n">
-        <v>563.6110965039612</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>102.5176150018526</v>
+        <v>45.42420330998191</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11141,28 +11141,28 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>556.06699315524</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>543.6422984969857</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>431.2720653443747</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>185.7772516568351</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
-        <v>44.6069768468382</v>
+        <v>71.01380490566048</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>132.430739708086</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>548.1738219293693</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>563.6110965039612</v>
+        <v>563.6110965039614</v>
       </c>
       <c r="P44" t="n">
-        <v>502.0059847475129</v>
+        <v>356.059571413646</v>
       </c>
       <c r="Q44" t="n">
         <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
-        <v>45.42420330998191</v>
+        <v>102.5176150018526</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,28 +11375,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>6.231223480599937</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>52.91086069094881</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>556.06699315524</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>543.6422984969857</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>568.8319963038639</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>212.1840797156574</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>44.6069768468382</v>
@@ -23260,16 +23260,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>328.8897863232346</v>
       </c>
       <c r="D11" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>69.21300581262665</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
         <v>407.523454444542</v>
@@ -23278,7 +23278,7 @@
         <v>305.4017585709749</v>
       </c>
       <c r="I11" t="n">
-        <v>78.82916265417055</v>
+        <v>78.82916265417056</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,19 +23308,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>214.6657556159317</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.0745883887606</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>183.3559385043883</v>
+        <v>79.20298847345902</v>
       </c>
       <c r="C13" t="n">
         <v>168.5030667546707</v>
@@ -23424,13 +23424,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E13" t="n">
-        <v>77.55146805138995</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H13" t="n">
         <v>147.910928759317</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>92.25350231781388</v>
+        <v>92.2535023178139</v>
       </c>
       <c r="S13" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>235.2182608864588</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>130.4923093460296</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>214.6657556159317</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>308.790673797148</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
         <v>392.5258019886049</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>122.931322183971</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>92.25350231781388</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>146.6066611871364</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
         <v>220.8809405715231</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
         <v>407.523454444542</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I17" t="n">
-        <v>59.03280772026482</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.0745883887606</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>195.3999893995684</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>114.1086392048957</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C19" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>178.394565240455</v>
       </c>
       <c r="T19" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>18.25743894021531</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E20" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>407.523454444542</v>
+        <v>180.2510832448871</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I20" t="n">
         <v>78.82916265417055</v>
@@ -24028,7 +24028,7 @@
         <v>253.0745883887606</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
         <v>367.2890446813954</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>78.81873031493345</v>
       </c>
       <c r="F22" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I22" t="n">
         <v>111.4255833268762</v>
@@ -24186,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>22.95357359687176</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>92.56053486075115</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>13.73137220658026</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24366,13 +24366,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>47.85536618690745</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24384,7 +24384,7 @@
         <v>147.910928759317</v>
       </c>
       <c r="I25" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>92.25350231781388</v>
       </c>
       <c r="S25" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>118.7679167630162</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>13.73137220658049</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>92.56053486075086</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.14998188117397</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>92.25350231781388</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>230.4722567313032</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5475152713843</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>141.4973637576426</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>13.73137220658032</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.82916265417055</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>92.56053486075081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>103.4644843456082</v>
+        <v>49.23092613834723</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.8952229274298</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>147.910928759317</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>111.4255833268762</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>92.25350231781388</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24934,10 +24934,10 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>13.73137220658032</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.82916265417053</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>92.56053486075135</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>29.268168600379</v>
       </c>
       <c r="D34" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.8952229274298</v>
       </c>
       <c r="H34" t="n">
         <v>147.910928759317</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>111.4255833268762</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>189.0020251410377</v>
       </c>
       <c r="T34" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>155.7029761273952</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>39.08580292491934</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>12.01622547592811</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>214.6657556159317</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>108.1714447999322</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25365,13 +25365,13 @@
         <v>189.0020251410377</v>
       </c>
       <c r="T37" t="n">
-        <v>50.15466017416153</v>
+        <v>230.4722567313032</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -25456,10 +25456,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>259.1860750832786</v>
       </c>
       <c r="Y38" t="n">
-        <v>270.1251595763848</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25551,13 +25551,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>147.5073041012959</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>155.7526754391568</v>
@@ -25566,7 +25566,7 @@
         <v>165.8952229274298</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I40" t="n">
         <v>111.4255833268762</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>100.6582702649978</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>361.2333630997109</v>
       </c>
       <c r="D41" t="n">
-        <v>6.071625100067592</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>305.4017585709749</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T41" t="n">
-        <v>214.6657556159317</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.0745883887606</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I43" t="n">
-        <v>1.356178500715018</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>92.25350231781388</v>
       </c>
       <c r="S43" t="n">
-        <v>189.0020251410377</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>230.4722567313032</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5475152713843</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>50.79852192309704</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,10 +25867,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>336.0736079865449</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>29.5547825920861</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>305.4017585709749</v>
       </c>
       <c r="I44" t="n">
-        <v>78.82916265417053</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.4923093460296</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.0745883887606</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
@@ -26034,13 +26034,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>57.57785096791628</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>165.8952229274298</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>147.910928759317</v>
       </c>
       <c r="I46" t="n">
         <v>111.4255833268762</v>
@@ -26073,16 +26073,16 @@
         <v>92.25350231781388</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.0020251410377</v>
       </c>
       <c r="T46" t="n">
-        <v>230.4722567313032</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5475152713843</v>
+        <v>172.7484786038055</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>520867.4646053767</v>
+        <v>520867.4646053766</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>520867.4646053768</v>
+        <v>520867.4646053767</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>769992.4560277918</v>
+        <v>769992.4560277916</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>769992.4560277916</v>
+        <v>769992.4560277917</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>557683.0493594081</v>
+        <v>557683.0493594083</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>557683.0493594077</v>
+        <v>557683.049359408</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>557683.049359408</v>
+        <v>557683.0493594081</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>577062.9698987418</v>
+        <v>577062.9698987415</v>
       </c>
       <c r="C2" t="n">
         <v>577062.9698987417</v>
       </c>
       <c r="D2" t="n">
-        <v>577062.9698987418</v>
+        <v>577062.9698987416</v>
       </c>
       <c r="E2" t="n">
-        <v>380190.8728879799</v>
+        <v>380190.8728879798</v>
       </c>
       <c r="F2" t="n">
         <v>380190.8728879798</v>
@@ -26331,19 +26331,19 @@
         <v>380190.8728879798</v>
       </c>
       <c r="H2" t="n">
-        <v>380190.87288798</v>
+        <v>380190.8728879798</v>
       </c>
       <c r="I2" t="n">
-        <v>542146.5424450932</v>
+        <v>542146.5424450934</v>
       </c>
       <c r="J2" t="n">
         <v>542146.5424450934</v>
       </c>
       <c r="K2" t="n">
-        <v>542146.5424450934</v>
+        <v>542146.5424450933</v>
       </c>
       <c r="L2" t="n">
-        <v>542146.5424450936</v>
+        <v>542146.5424450935</v>
       </c>
       <c r="M2" t="n">
         <v>404124.6125137479</v>
@@ -26352,7 +26352,7 @@
         <v>404124.6125137481</v>
       </c>
       <c r="O2" t="n">
-        <v>404124.612513748</v>
+        <v>404124.6125137479</v>
       </c>
       <c r="P2" t="n">
         <v>404124.6125137481</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4264.605754355376</v>
+        <v>4264.605754355363</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>468059.3130637421</v>
+        <v>468059.313063742</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>174270.7397964738</v>
+        <v>174270.7397964739</v>
       </c>
       <c r="J3" t="n">
         <v>3329.549174459989</v>
@@ -26426,19 +26426,19 @@
         <v>365178.20415401</v>
       </c>
       <c r="E4" t="n">
-        <v>69860.55046778252</v>
+        <v>69860.55046778251</v>
       </c>
       <c r="F4" t="n">
         <v>69860.55046778251</v>
       </c>
       <c r="G4" t="n">
-        <v>69860.55046778252</v>
+        <v>69860.55046778251</v>
       </c>
       <c r="H4" t="n">
-        <v>69860.55046778251</v>
+        <v>69860.55046778248</v>
       </c>
       <c r="I4" t="n">
-        <v>126973.0168392523</v>
+        <v>126973.0168392522</v>
       </c>
       <c r="J4" t="n">
         <v>126973.0168392522</v>
@@ -26450,16 +26450,16 @@
         <v>126973.0168392522</v>
       </c>
       <c r="M4" t="n">
-        <v>78300.60633775101</v>
+        <v>78300.60633775103</v>
       </c>
       <c r="N4" t="n">
         <v>78300.606337751</v>
       </c>
       <c r="O4" t="n">
-        <v>78300.60633775099</v>
+        <v>78300.60633775101</v>
       </c>
       <c r="P4" t="n">
-        <v>78300.60633775099</v>
+        <v>78300.606337751</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>42906.29364579353</v>
       </c>
       <c r="G5" t="n">
-        <v>42906.29364579353</v>
+        <v>42906.29364579352</v>
       </c>
       <c r="H5" t="n">
-        <v>42906.29364579353</v>
+        <v>42906.29364579352</v>
       </c>
       <c r="I5" t="n">
         <v>82751.43930794737</v>
@@ -26508,10 +26508,10 @@
         <v>48794.59224155522</v>
       </c>
       <c r="O5" t="n">
-        <v>48794.5922415552</v>
+        <v>48794.59224155522</v>
       </c>
       <c r="P5" t="n">
-        <v>48794.5922415552</v>
+        <v>48794.59224155522</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>173218.849949989</v>
+        <v>173218.8499499887</v>
       </c>
       <c r="C6" t="n">
         <v>177483.4557043442</v>
       </c>
       <c r="D6" t="n">
-        <v>177483.4557043443</v>
+        <v>177483.455704344</v>
       </c>
       <c r="E6" t="n">
-        <v>-200635.2842893382</v>
+        <v>-201250.5095924969</v>
       </c>
       <c r="F6" t="n">
-        <v>267424.0287744038</v>
+        <v>266808.8034712452</v>
       </c>
       <c r="G6" t="n">
-        <v>267424.0287744038</v>
+        <v>266808.8034712452</v>
       </c>
       <c r="H6" t="n">
-        <v>267424.028774404</v>
+        <v>266808.8034712452</v>
       </c>
       <c r="I6" t="n">
-        <v>158151.3465014197</v>
+        <v>158042.2326656273</v>
       </c>
       <c r="J6" t="n">
-        <v>329092.5371234338</v>
+        <v>328983.4232876412</v>
       </c>
       <c r="K6" t="n">
-        <v>332422.0862978938</v>
+        <v>332312.9724621011</v>
       </c>
       <c r="L6" t="n">
-        <v>332422.0862978941</v>
+        <v>332312.9724621013</v>
       </c>
       <c r="M6" t="n">
-        <v>277029.4139344417</v>
+        <v>276488.9815676136</v>
       </c>
       <c r="N6" t="n">
-        <v>277029.4139344419</v>
+        <v>276488.9815676138</v>
       </c>
       <c r="O6" t="n">
-        <v>277029.4139344418</v>
+        <v>276488.9815676135</v>
       </c>
       <c r="P6" t="n">
-        <v>277029.4139344419</v>
+        <v>276488.9815676138</v>
       </c>
     </row>
   </sheetData>
@@ -26764,7 +26764,7 @@
         <v>375.0337861932936</v>
       </c>
       <c r="K3" t="n">
-        <v>375.0337861932937</v>
+        <v>375.0337861932936</v>
       </c>
       <c r="L3" t="n">
         <v>375.0337861932937</v>
@@ -26804,10 +26804,10 @@
         <v>571.2262682036139</v>
       </c>
       <c r="G4" t="n">
-        <v>571.2262682036139</v>
+        <v>571.2262682036138</v>
       </c>
       <c r="H4" t="n">
-        <v>571.2262682036139</v>
+        <v>571.2262682036138</v>
       </c>
       <c r="I4" t="n">
         <v>1226.574058699565</v>
@@ -26828,10 +26828,10 @@
         <v>668.0732845812734</v>
       </c>
       <c r="O4" t="n">
-        <v>668.0732845812731</v>
+        <v>668.0732845812734</v>
       </c>
       <c r="P4" t="n">
-        <v>668.0732845812731</v>
+        <v>668.0732845812734</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>655.3477904959512</v>
+        <v>655.3477904959514</v>
       </c>
       <c r="J4" t="n">
         <v>12.725494085322</v>
@@ -27387,7 +27387,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>385.8321955492989</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>308.1167258438522</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>134.776258504985</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>24.88749049201128</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>152.1229254230379</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
@@ -27438,7 +27438,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>336.508253970042</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
@@ -27466,16 +27466,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>123.8734107898695</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>110.4619939703775</v>
       </c>
       <c r="G3" t="n">
         <v>106.1337256635322</v>
       </c>
       <c r="H3" t="n">
-        <v>76.20582704505347</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>36.16788736288552</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9523785855941</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
         <v>133.5813703291298</v>
@@ -27539,7 +27539,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>157.294451564319</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27557,10 +27557,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>119.0379870239709</v>
       </c>
       <c r="J4" t="n">
-        <v>17.34899338683707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27590,7 +27590,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>220.6363672281262</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27605,7 +27605,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>209.6723253811714</v>
+        <v>208.1554464862011</v>
       </c>
     </row>
     <row r="5">
@@ -27621,16 +27621,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>379.4092302620242</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>385.8321955492989</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>397.8225127665252</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>24.88749049201128</v>
       </c>
       <c r="S5" t="n">
         <v>152.1229254230379</v>
@@ -27700,22 +27700,22 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>116.0625836194125</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>111.9788728653479</v>
+        <v>110.4619939703775</v>
       </c>
       <c r="G6" t="n">
-        <v>106.1337256635322</v>
+        <v>107.6506045585026</v>
       </c>
       <c r="H6" t="n">
-        <v>74.68894815008308</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>36.16788736288552</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>120.8558762438078</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -27797,7 +27797,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>17.34899338683707</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>111.4533642833972</v>
       </c>
       <c r="S7" t="n">
-        <v>188.0624288939541</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>220.6363672281262</v>
       </c>
       <c r="U7" t="n">
-        <v>269.8589097551961</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
@@ -27842,7 +27842,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>208.1554464862011</v>
       </c>
     </row>
     <row r="8">
@@ -27861,13 +27861,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>396.3802024011461</v>
+        <v>387.3490744442693</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>396.3056338715548</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -27921,7 +27921,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>379.8003079032829</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -27949,10 +27949,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H9" t="n">
-        <v>76.20582704505347</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I9" t="n">
-        <v>36.16788736288552</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,19 +27979,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>23.6778726709161</v>
+        <v>10.9523785855941</v>
       </c>
       <c r="S9" t="n">
-        <v>133.5813703291298</v>
+        <v>120.8558762438078</v>
       </c>
       <c r="T9" t="n">
-        <v>162.4884795977586</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U9" t="n">
-        <v>207.9625118881446</v>
+        <v>195.2370178028226</v>
       </c>
       <c r="V9" t="n">
-        <v>207.5891075273216</v>
+        <v>209.105986422292</v>
       </c>
       <c r="W9" t="n">
         <v>227.816073408046</v>
@@ -28019,10 +28019,10 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>141.2777299340675</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>143.0271813538348</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28031,10 +28031,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>120.5548659189413</v>
+        <v>119.0379870239709</v>
       </c>
       <c r="J10" t="n">
-        <v>17.34899338683707</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>111.4533642833972</v>
       </c>
       <c r="S10" t="n">
         <v>200.7879229792761</v>
@@ -28067,10 +28067,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>269.8589097551961</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>250.594057642062</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -31758,7 +31758,7 @@
         <v>15.44046135819926</v>
       </c>
       <c r="I11" t="n">
-        <v>58.12458308428927</v>
+        <v>58.12458308428926</v>
       </c>
       <c r="J11" t="n">
         <v>127.9619047675299</v>
@@ -31767,7 +31767,7 @@
         <v>191.781724544664</v>
       </c>
       <c r="L11" t="n">
-        <v>237.9221877977817</v>
+        <v>237.9221877977816</v>
       </c>
       <c r="M11" t="n">
         <v>264.7342766227665</v>
@@ -31779,19 +31779,19 @@
         <v>254.0260255014082</v>
       </c>
       <c r="P11" t="n">
-        <v>216.8053356656417</v>
+        <v>216.8053356656416</v>
       </c>
       <c r="Q11" t="n">
-        <v>162.8117780051499</v>
+        <v>162.8117780051498</v>
       </c>
       <c r="R11" t="n">
-        <v>94.70639626920395</v>
+        <v>94.70639626920394</v>
       </c>
       <c r="S11" t="n">
         <v>34.35611016233037</v>
       </c>
       <c r="T11" t="n">
-        <v>6.599840800245799</v>
+        <v>6.599840800245798</v>
       </c>
       <c r="U11" t="n">
         <v>0.1206138809867878</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8066764457742542</v>
+        <v>0.8066764457742541</v>
       </c>
       <c r="H12" t="n">
-        <v>7.790796199977667</v>
+        <v>7.790796199977666</v>
       </c>
       <c r="I12" t="n">
-        <v>27.77372850582411</v>
+        <v>27.7737285058241</v>
       </c>
       <c r="J12" t="n">
-        <v>76.2132338527334</v>
+        <v>76.21323385273338</v>
       </c>
       <c r="K12" t="n">
         <v>130.2605557196084</v>
@@ -31852,7 +31852,7 @@
         <v>204.393413475345</v>
       </c>
       <c r="N12" t="n">
-        <v>209.803098938454</v>
+        <v>209.8030989384539</v>
       </c>
       <c r="O12" t="n">
         <v>191.9288471662981</v>
@@ -31864,16 +31864,16 @@
         <v>102.9715406921662</v>
       </c>
       <c r="R12" t="n">
-        <v>50.08470072973837</v>
+        <v>50.08470072973836</v>
       </c>
       <c r="S12" t="n">
         <v>14.98366117479809</v>
       </c>
       <c r="T12" t="n">
-        <v>3.25147216520412</v>
+        <v>3.251472165204119</v>
       </c>
       <c r="U12" t="n">
-        <v>0.0530708188009378</v>
+        <v>0.05307081880093779</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,7 +31910,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.676290434119054</v>
+        <v>0.6762904341190539</v>
       </c>
       <c r="H13" t="n">
         <v>6.012836768803957</v>
@@ -31922,7 +31922,7 @@
         <v>47.81373369221711</v>
       </c>
       <c r="K13" t="n">
-        <v>78.5726522549228</v>
+        <v>78.57265225492279</v>
       </c>
       <c r="L13" t="n">
         <v>100.5459432689365</v>
@@ -31934,13 +31934,13 @@
         <v>103.4908807047822</v>
       </c>
       <c r="O13" t="n">
-        <v>95.5905788153005</v>
+        <v>95.59057881530049</v>
       </c>
       <c r="P13" t="n">
         <v>81.79425395927173</v>
       </c>
       <c r="Q13" t="n">
-        <v>56.63010171518734</v>
+        <v>56.63010171518733</v>
       </c>
       <c r="R13" t="n">
         <v>30.40847715593491</v>
@@ -31952,7 +31952,7 @@
         <v>2.889604582145048</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03688856913376663</v>
+        <v>0.03688856913376662</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33174,31 +33174,31 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.507673512334848</v>
+        <v>1.507673512334847</v>
       </c>
       <c r="H29" t="n">
-        <v>15.44046135819927</v>
+        <v>15.44046135819926</v>
       </c>
       <c r="I29" t="n">
-        <v>58.12458308428928</v>
+        <v>58.12458308428927</v>
       </c>
       <c r="J29" t="n">
         <v>127.9619047675299</v>
       </c>
       <c r="K29" t="n">
-        <v>191.7817245446641</v>
+        <v>191.781724544664</v>
       </c>
       <c r="L29" t="n">
         <v>237.9221877977817</v>
       </c>
       <c r="M29" t="n">
-        <v>264.7342766227666</v>
+        <v>264.7342766227665</v>
       </c>
       <c r="N29" t="n">
-        <v>269.017953989688</v>
+        <v>269.0179539896879</v>
       </c>
       <c r="O29" t="n">
-        <v>254.0260255014083</v>
+        <v>254.0260255014082</v>
       </c>
       <c r="P29" t="n">
         <v>216.8053356656417</v>
@@ -33207,13 +33207,13 @@
         <v>162.8117780051499</v>
       </c>
       <c r="R29" t="n">
-        <v>94.70639626920398</v>
+        <v>94.70639626920395</v>
       </c>
       <c r="S29" t="n">
-        <v>34.35611016233038</v>
+        <v>34.35611016233037</v>
       </c>
       <c r="T29" t="n">
-        <v>6.599840800245801</v>
+        <v>6.599840800245799</v>
       </c>
       <c r="U29" t="n">
         <v>0.1206138809867878</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8066764457742545</v>
+        <v>0.8066764457742542</v>
       </c>
       <c r="H30" t="n">
-        <v>7.790796199977669</v>
+        <v>7.790796199977667</v>
       </c>
       <c r="I30" t="n">
-        <v>27.77372850582412</v>
+        <v>27.77372850582411</v>
       </c>
       <c r="J30" t="n">
-        <v>76.21323385273341</v>
+        <v>76.2132338527334</v>
       </c>
       <c r="K30" t="n">
         <v>130.2605557196084</v>
       </c>
       <c r="L30" t="n">
-        <v>175.1513923160284</v>
+        <v>175.1513923160283</v>
       </c>
       <c r="M30" t="n">
-        <v>204.3934134753451</v>
+        <v>204.393413475345</v>
       </c>
       <c r="N30" t="n">
         <v>209.803098938454</v>
       </c>
       <c r="O30" t="n">
-        <v>191.9288471662982</v>
+        <v>191.9288471662981</v>
       </c>
       <c r="P30" t="n">
         <v>154.0398205970153</v>
@@ -33286,16 +33286,16 @@
         <v>102.9715406921662</v>
       </c>
       <c r="R30" t="n">
-        <v>50.08470072973838</v>
+        <v>50.08470072973837</v>
       </c>
       <c r="S30" t="n">
         <v>14.98366117479809</v>
       </c>
       <c r="T30" t="n">
-        <v>3.251472165204121</v>
+        <v>3.25147216520412</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05307081880093781</v>
+        <v>0.0530708188009378</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6762904341190542</v>
+        <v>0.676290434119054</v>
       </c>
       <c r="H31" t="n">
-        <v>6.012836768803959</v>
+        <v>6.012836768803957</v>
       </c>
       <c r="I31" t="n">
         <v>20.33789778241665</v>
       </c>
       <c r="J31" t="n">
-        <v>47.81373369221713</v>
+        <v>47.81373369221711</v>
       </c>
       <c r="K31" t="n">
-        <v>78.57265225492283</v>
+        <v>78.5726522549228</v>
       </c>
       <c r="L31" t="n">
         <v>100.5459432689365</v>
@@ -33356,22 +33356,22 @@
         <v>103.4908807047822</v>
       </c>
       <c r="O31" t="n">
-        <v>95.59057881530053</v>
+        <v>95.5905788153005</v>
       </c>
       <c r="P31" t="n">
-        <v>81.79425395927176</v>
+        <v>81.79425395927173</v>
       </c>
       <c r="Q31" t="n">
-        <v>56.63010171518735</v>
+        <v>56.63010171518734</v>
       </c>
       <c r="R31" t="n">
-        <v>30.40847715593492</v>
+        <v>30.40847715593491</v>
       </c>
       <c r="S31" t="n">
         <v>11.78589783823842</v>
       </c>
       <c r="T31" t="n">
-        <v>2.889604582145049</v>
+        <v>2.889604582145048</v>
       </c>
       <c r="U31" t="n">
         <v>0.03688856913376663</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>12.21133270813727</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="L2" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>12.725494085322</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="M3" t="n">
-        <v>12.21133270813727</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34871,10 +34871,10 @@
         <v>12.725494085322</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>8.754568697984791</v>
       </c>
       <c r="P4" t="n">
-        <v>8.754568697984791</v>
+        <v>12.725494085322</v>
       </c>
       <c r="Q4" t="n">
         <v>3.456764010152483</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34947,16 +34947,16 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.21133270813727</v>
+        <v>12.725494085322</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="L6" t="n">
         <v>12.725494085322</v>
@@ -35029,13 +35029,13 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,22 +35099,22 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>8.754568697984791</v>
+        <v>12.725494085322</v>
       </c>
       <c r="M7" t="n">
-        <v>12.725494085322</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="N7" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
         <v>12.725494085322</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
       <c r="Q7" t="n">
-        <v>3.456764010152483</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K8" t="n">
-        <v>12.725494085322</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35187,13 +35187,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>12.725494085322</v>
+        <v>12.21133270813727</v>
       </c>
       <c r="P8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q8" t="n">
-        <v>12.21133270813727</v>
+        <v>12.725494085322</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>12.21133270813727</v>
-      </c>
-      <c r="M9" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>12.725494085322</v>
       </c>
       <c r="P9" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>12.725494085322</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35342,13 +35342,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="N10" t="n">
+        <v>12.725494085322</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
         <v>8.754568697984791</v>
-      </c>
-      <c r="O10" t="n">
-        <v>12.725494085322</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>3.456764010152483</v>
@@ -35412,13 +35412,13 @@
         <v>274.0727864936189</v>
       </c>
       <c r="K11" t="n">
-        <v>48.72332136542667</v>
+        <v>554.3901649764437</v>
       </c>
       <c r="L11" t="n">
-        <v>157.7664099741959</v>
+        <v>84.67401806728992</v>
       </c>
       <c r="M11" t="n">
-        <v>115.0092250250393</v>
+        <v>184.4407580684411</v>
       </c>
       <c r="N11" t="n">
         <v>119.8994626519038</v>
@@ -35427,13 +35427,13 @@
         <v>571.2262682036139</v>
       </c>
       <c r="P11" t="n">
-        <v>568.5098731722294</v>
+        <v>66.50388842471642</v>
       </c>
       <c r="Q11" t="n">
         <v>349.524465016209</v>
       </c>
       <c r="R11" t="n">
-        <v>57.09341169187067</v>
+        <v>57.09341169187066</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,19 +35497,19 @@
         <v>571.2262682036139</v>
       </c>
       <c r="M12" t="n">
-        <v>297.4913738191817</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N12" t="n">
-        <v>571.2262682036139</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O12" t="n">
-        <v>99.24128827740923</v>
+        <v>99.2412882774092</v>
       </c>
       <c r="P12" t="n">
-        <v>66.95645577770063</v>
+        <v>371.5162514222517</v>
       </c>
       <c r="Q12" t="n">
-        <v>11.98338753625222</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35576,7 +35576,7 @@
         <v>266.3314380909565</v>
       </c>
       <c r="M13" t="n">
-        <v>294.1849110483815</v>
+        <v>294.1849110483814</v>
       </c>
       <c r="N13" t="n">
         <v>288.530915079741</v>
@@ -35588,7 +35588,7 @@
         <v>202.8812900972299</v>
       </c>
       <c r="Q13" t="n">
-        <v>60.08686572533982</v>
+        <v>60.08686572533981</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>10.28206682518379</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K14" t="n">
-        <v>48.72332136542667</v>
+        <v>554.3901649764437</v>
       </c>
       <c r="L14" t="n">
-        <v>482.7833457861611</v>
+        <v>507.1684436108034</v>
       </c>
       <c r="M14" t="n">
-        <v>571.2262682036139</v>
+        <v>115.0092250250393</v>
       </c>
       <c r="N14" t="n">
-        <v>571.2262682036139</v>
+        <v>119.8994626519038</v>
       </c>
       <c r="O14" t="n">
         <v>104.4621880773119</v>
       </c>
       <c r="P14" t="n">
-        <v>66.50388842471648</v>
+        <v>568.5098731722294</v>
       </c>
       <c r="Q14" t="n">
-        <v>349.524465016209</v>
+        <v>18.31307958675771</v>
       </c>
       <c r="R14" t="n">
-        <v>57.09341169187067</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>40.66362038627507</v>
+        <v>453.2293901258977</v>
       </c>
       <c r="L15" t="n">
-        <v>85.09104545911011</v>
+        <v>569.4549364203</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1406700075199</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N15" t="n">
-        <v>571.2262682036139</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O15" t="n">
         <v>99.24128827740923</v>
@@ -35889,22 +35889,22 @@
         <v>554.3901649764437</v>
       </c>
       <c r="L17" t="n">
-        <v>571.2262682036139</v>
+        <v>571.2262682036138</v>
       </c>
       <c r="M17" t="n">
-        <v>571.2262682036139</v>
+        <v>115.0092250250393</v>
       </c>
       <c r="N17" t="n">
-        <v>365.4212992964665</v>
+        <v>119.8994626519038</v>
       </c>
       <c r="O17" t="n">
-        <v>104.4621880773119</v>
+        <v>474.9896824709976</v>
       </c>
       <c r="P17" t="n">
         <v>66.50388842471648</v>
       </c>
       <c r="Q17" t="n">
-        <v>18.31307958675771</v>
+        <v>349.524465016209</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,13 +35962,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K18" t="n">
-        <v>425.0512302837624</v>
+        <v>453.2293901258977</v>
       </c>
       <c r="L18" t="n">
-        <v>571.2262682036139</v>
+        <v>352.5773167110403</v>
       </c>
       <c r="M18" t="n">
         <v>112.0062914260331</v>
@@ -36123,16 +36123,16 @@
         <v>10.28206682518379</v>
       </c>
       <c r="K20" t="n">
-        <v>554.3901649764437</v>
+        <v>48.72332136542667</v>
       </c>
       <c r="L20" t="n">
-        <v>571.2262682036139</v>
+        <v>571.2262682036138</v>
       </c>
       <c r="M20" t="n">
-        <v>571.2262682036139</v>
+        <v>571.2262682036138</v>
       </c>
       <c r="N20" t="n">
-        <v>308.3278876045957</v>
+        <v>571.2262682036138</v>
       </c>
       <c r="O20" t="n">
         <v>104.4621880773119</v>
@@ -36141,7 +36141,7 @@
         <v>66.50388842471648</v>
       </c>
       <c r="Q20" t="n">
-        <v>18.31307958675771</v>
+        <v>261.0815425987562</v>
       </c>
       <c r="R20" t="n">
         <v>57.09341169187067</v>
@@ -36199,22 +36199,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K21" t="n">
-        <v>40.66362038627507</v>
+        <v>453.2293901258977</v>
       </c>
       <c r="L21" t="n">
-        <v>85.09104545911011</v>
+        <v>571.2262682036138</v>
       </c>
       <c r="M21" t="n">
-        <v>417.8762589492395</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N21" t="n">
-        <v>571.2262682036139</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O21" t="n">
-        <v>571.2262682036139</v>
+        <v>208.3129056527597</v>
       </c>
       <c r="P21" t="n">
         <v>563.7583748560025</v>
@@ -36223,7 +36223,7 @@
         <v>11.98338753625222</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>26.40682805882226</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36436,13 +36436,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K24" t="n">
         <v>453.2293901258977</v>
       </c>
       <c r="L24" t="n">
-        <v>663.6019841325063</v>
+        <v>92.27949556608807</v>
       </c>
       <c r="M24" t="n">
         <v>112.0062914260331</v>
@@ -36451,7 +36451,7 @@
         <v>124.4309860842873</v>
       </c>
       <c r="O24" t="n">
-        <v>332.814809433127</v>
+        <v>713.6665063491073</v>
       </c>
       <c r="P24" t="n">
         <v>563.7583748560025</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K27" t="n">
-        <v>40.66362038627507</v>
+        <v>453.2293901258977</v>
       </c>
       <c r="L27" t="n">
-        <v>663.6019841325063</v>
+        <v>378.9841447698619</v>
       </c>
       <c r="M27" t="n">
         <v>112.0062914260331</v>
       </c>
       <c r="N27" t="n">
-        <v>872.2050900602308</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O27" t="n">
-        <v>494.408394275108</v>
+        <v>99.24128827740923</v>
       </c>
       <c r="P27" t="n">
-        <v>66.95645577770063</v>
+        <v>563.7583748560025</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.98338753625222</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,22 +36840,22 @@
         <v>736.2255127659927</v>
       </c>
       <c r="M29" t="n">
-        <v>816.2503372738581</v>
+        <v>816.250337273858</v>
       </c>
       <c r="N29" t="n">
         <v>802.1606647345991</v>
       </c>
       <c r="O29" t="n">
-        <v>698.5104708471946</v>
+        <v>698.5104708471945</v>
       </c>
       <c r="P29" t="n">
         <v>568.5098731722294</v>
       </c>
       <c r="Q29" t="n">
-        <v>349.5244650162091</v>
+        <v>349.524465016209</v>
       </c>
       <c r="R29" t="n">
-        <v>57.0934116918707</v>
+        <v>57.09341169187067</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>40.6636203862751</v>
+        <v>40.66362038627507</v>
       </c>
       <c r="L30" t="n">
-        <v>85.09104545911016</v>
+        <v>663.6019841325063</v>
       </c>
       <c r="M30" t="n">
-        <v>471.2591180254298</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N30" t="n">
-        <v>872.2050900602309</v>
+        <v>124.4309860842873</v>
       </c>
       <c r="O30" t="n">
         <v>713.6665063491073</v>
       </c>
       <c r="P30" t="n">
-        <v>66.95645577770068</v>
+        <v>563.7583748560025</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.98338753625225</v>
+        <v>43.69746035989497</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>17.73924622005806</v>
+        <v>17.73924622005804</v>
       </c>
       <c r="K31" t="n">
         <v>161.2343099417328</v>
@@ -37004,13 +37004,13 @@
         <v>288.530915079741</v>
       </c>
       <c r="O31" t="n">
-        <v>259.9388283523794</v>
+        <v>259.9388283523793</v>
       </c>
       <c r="P31" t="n">
         <v>202.8812900972299</v>
       </c>
       <c r="Q31" t="n">
-        <v>60.08686572533983</v>
+        <v>60.08686572533982</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37080,7 +37080,7 @@
         <v>816.2503372738581</v>
       </c>
       <c r="N32" t="n">
-        <v>802.1606647345981</v>
+        <v>802.1606647345991</v>
       </c>
       <c r="O32" t="n">
         <v>698.5104708471946</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K33" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L33" t="n">
-        <v>663.6019841325065</v>
+        <v>85.09104545911016</v>
       </c>
       <c r="M33" t="n">
         <v>112.0062914260331</v>
       </c>
       <c r="N33" t="n">
-        <v>652.9469779862311</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O33" t="n">
         <v>713.6665063491073</v>
       </c>
       <c r="P33" t="n">
-        <v>66.95645577770068</v>
+        <v>216.8194280362337</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.98338753625225</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>26.40682805882228</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,10 +37305,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10.28206682518383</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K35" t="n">
-        <v>554.3901649764437</v>
+        <v>177.728482015787</v>
       </c>
       <c r="L35" t="n">
         <v>668.0732845812734</v>
@@ -37317,7 +37317,7 @@
         <v>668.0732845812734</v>
       </c>
       <c r="N35" t="n">
-        <v>555.2023212890516</v>
+        <v>668.0732845812734</v>
       </c>
       <c r="O35" t="n">
         <v>104.4621880773119</v>
@@ -37387,16 +37387,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>40.6636203862751</v>
+        <v>117.9709149777515</v>
       </c>
       <c r="L36" t="n">
-        <v>85.09104545911016</v>
+        <v>663.6019841325065</v>
       </c>
       <c r="M36" t="n">
-        <v>668.0732845812734</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N36" t="n">
-        <v>224.1822261939199</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O36" t="n">
         <v>668.0732845812734</v>
@@ -37542,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>10.28206682518383</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K38" t="n">
         <v>554.3901649764437</v>
       </c>
       <c r="L38" t="n">
-        <v>668.0732845812734</v>
+        <v>559.4321129292554</v>
       </c>
       <c r="M38" t="n">
-        <v>213.0653613495857</v>
+        <v>115.0092250250393</v>
       </c>
       <c r="N38" t="n">
         <v>119.8994626519039</v>
@@ -37566,7 +37566,7 @@
         <v>349.5244650162091</v>
       </c>
       <c r="R38" t="n">
-        <v>57.0934116918707</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>40.6636203862751</v>
+        <v>359.082342413691</v>
       </c>
       <c r="L39" t="n">
         <v>663.6019841325065</v>
       </c>
       <c r="M39" t="n">
-        <v>142.4732065988252</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N39" t="n">
-        <v>668.0732845812734</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O39" t="n">
-        <v>668.0732845812734</v>
+        <v>99.24128827740928</v>
       </c>
       <c r="P39" t="n">
-        <v>66.95645577770068</v>
+        <v>563.7583748560027</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.98338753625225</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,22 +37779,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>10.28206682518383</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K41" t="n">
-        <v>48.72332136542673</v>
+        <v>554.3901649764437</v>
       </c>
       <c r="L41" t="n">
-        <v>440.1646567042358</v>
+        <v>668.0732845812734</v>
       </c>
       <c r="M41" t="n">
-        <v>668.0732845812731</v>
+        <v>668.0732845812734</v>
       </c>
       <c r="N41" t="n">
-        <v>668.0732845812731</v>
+        <v>291.4116016206166</v>
       </c>
       <c r="O41" t="n">
-        <v>668.0732845812731</v>
+        <v>104.4621880773119</v>
       </c>
       <c r="P41" t="n">
         <v>66.50388842471654</v>
@@ -37803,7 +37803,7 @@
         <v>18.31307958675777</v>
       </c>
       <c r="R41" t="n">
-        <v>57.0934116918707</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>190.4707916504378</v>
       </c>
       <c r="K42" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L42" t="n">
-        <v>85.09104545911016</v>
+        <v>663.6019841325065</v>
       </c>
       <c r="M42" t="n">
-        <v>668.0732845812731</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N42" t="n">
-        <v>668.0732845812731</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O42" t="n">
-        <v>530.5133536217839</v>
+        <v>99.24128827740928</v>
       </c>
       <c r="P42" t="n">
-        <v>66.95645577770068</v>
+        <v>252.7337074345358</v>
       </c>
       <c r="Q42" t="n">
-        <v>11.98338753625225</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>26.40682805882228</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>10.28206682518383</v>
+        <v>274.0727864936189</v>
       </c>
       <c r="K44" t="n">
-        <v>48.72332136542673</v>
+        <v>554.3901649764437</v>
       </c>
       <c r="L44" t="n">
         <v>84.67401806729004</v>
       </c>
       <c r="M44" t="n">
-        <v>247.4399647331254</v>
+        <v>115.0092250250393</v>
       </c>
       <c r="N44" t="n">
-        <v>668.0732845812731</v>
+        <v>119.8994626519039</v>
       </c>
       <c r="O44" t="n">
-        <v>668.0732845812731</v>
+        <v>668.0732845812734</v>
       </c>
       <c r="P44" t="n">
-        <v>568.5098731722294</v>
+        <v>422.5634598383625</v>
       </c>
       <c r="Q44" t="n">
         <v>349.5244650162091</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>57.0934116918707</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>190.4707916504378</v>
       </c>
       <c r="K45" t="n">
-        <v>40.6636203862751</v>
+        <v>453.2293901258978</v>
       </c>
       <c r="L45" t="n">
-        <v>138.001906150059</v>
+        <v>663.6019841325065</v>
       </c>
       <c r="M45" t="n">
-        <v>668.0732845812731</v>
+        <v>112.0062914260331</v>
       </c>
       <c r="N45" t="n">
-        <v>668.0732845812731</v>
+        <v>124.4309860842874</v>
       </c>
       <c r="O45" t="n">
-        <v>668.0732845812731</v>
+        <v>99.24128827740928</v>
       </c>
       <c r="P45" t="n">
-        <v>66.95645577770068</v>
+        <v>279.1405354933581</v>
       </c>
       <c r="Q45" t="n">
-        <v>11.98338753625225</v>
+        <v>339.7039564041768</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
